--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personal\leetcode\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F725471-0CC7-49B7-B8B5-3C7236FE8079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +24,58 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>Two Sum - LeetCode</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>difficulty</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>datastructure</t>
+  </si>
+  <si>
+    <t>dictionary</t>
+  </si>
+  <si>
+    <t>efficient O</t>
+  </si>
+  <si>
+    <t>O(n)</t>
+  </si>
+  <si>
+    <t>highlight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">utilize a dictionary to store the complement of each element needed to reach the target sum. </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,13 +98,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +402,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="3"/>
+    <col min="3" max="3" width="21.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="47.77734375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" display="https://leetcode.com/problems/two-sum/description/" xr:uid="{D29A1F65-8394-4D89-BD96-17CD60D15AFD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personal\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F725471-0CC7-49B7-B8B5-3C7236FE8079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AB3458-751B-4178-B55A-142445EA82D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>url</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t xml:space="preserve">utilize a dictionary to store the complement of each element needed to reach the target sum. </t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>http://rb.gy/4v8nxh</t>
+  </si>
+  <si>
+    <t>utilize a sliding window approach with a dictionary to track character indices.</t>
   </si>
 </sst>
 </file>
@@ -102,26 +111,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -403,64 +407,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F3"/>
+  <dimension ref="A2:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="3"/>
-    <col min="3" max="3" width="21.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" customWidth="1"/>
-    <col min="6" max="6" width="47.77734375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="18.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="47.77734375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="3" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" display="https://leetcode.com/problems/two-sum/description/" xr:uid="{D29A1F65-8394-4D89-BD96-17CD60D15AFD}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{3A7CEF42-3337-4C95-84AC-B7CAF9B28B7F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personal\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AB3458-751B-4178-B55A-142445EA82D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBFB752-92D5-4C54-9AD5-DCDA033F119E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>url</t>
   </si>
@@ -67,6 +67,27 @@
   </si>
   <si>
     <t>utilize a sliding window approach with a dictionary to track character indices.</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>utilize a two-pointer approach with a sliding window technique.</t>
+  </si>
+  <si>
+    <t>Container With Most Water</t>
+  </si>
+  <si>
+    <t>Longest Substring Without Repeating Characters</t>
+  </si>
+  <si>
+    <t>Two Sum</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>http://rb.gy/oual6</t>
   </si>
 </sst>
 </file>
@@ -407,85 +428,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F4"/>
+  <dimension ref="A2:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="18.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="47.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="84.5546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="https://leetcode.com/problems/two-sum/description/" xr:uid="{D29A1F65-8394-4D89-BD96-17CD60D15AFD}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{3A7CEF42-3337-4C95-84AC-B7CAF9B28B7F}"/>
+    <hyperlink ref="D3" r:id="rId1" display="https://leetcode.com/problems/two-sum/description/" xr:uid="{D29A1F65-8394-4D89-BD96-17CD60D15AFD}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{3A7CEF42-3337-4C95-84AC-B7CAF9B28B7F}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{6B70FD5E-C0D2-445D-BDB3-4DB279AB8A7B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personal\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBFB752-92D5-4C54-9AD5-DCDA033F119E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D107DDC7-E74A-44E6-B816-D60C3AFD838C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>url</t>
   </si>
@@ -45,9 +45,6 @@
     <t>datastructure</t>
   </si>
   <si>
-    <t>dictionary</t>
-  </si>
-  <si>
     <t>efficient O</t>
   </si>
   <si>
@@ -57,24 +54,15 @@
     <t>highlight</t>
   </si>
   <si>
-    <t xml:space="preserve">utilize a dictionary to store the complement of each element needed to reach the target sum. </t>
-  </si>
-  <si>
     <t>medium</t>
   </si>
   <si>
     <t>http://rb.gy/4v8nxh</t>
   </si>
   <si>
-    <t>utilize a sliding window approach with a dictionary to track character indices.</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
-    <t>utilize a two-pointer approach with a sliding window technique.</t>
-  </si>
-  <si>
     <t>Container With Most Water</t>
   </si>
   <si>
@@ -88,6 +76,33 @@
   </si>
   <si>
     <t>http://rb.gy/oual6</t>
+  </si>
+  <si>
+    <t>Insertion Sort List</t>
+  </si>
+  <si>
+    <t>http://rb.gy/n391x5</t>
+  </si>
+  <si>
+    <t>Linked List</t>
+  </si>
+  <si>
+    <t>Dictionary</t>
+  </si>
+  <si>
+    <t>O(n2)</t>
+  </si>
+  <si>
+    <t>Utilizes linked lists and pointer manipulation using the original insertion sort algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilize a dictionary to store the complement of each element needed to reach the target sum. </t>
+  </si>
+  <si>
+    <t>Utilize a sliding window approach with a dictionary to track character indices.</t>
+  </si>
+  <si>
+    <t>Utilize a two-pointer approach with a sliding window technique.</t>
   </si>
 </sst>
 </file>
@@ -428,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G5"/>
+  <dimension ref="A2:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
@@ -461,10 +476,10 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -475,19 +490,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -495,22 +510,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -518,22 +533,45 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>147</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -541,6 +579,7 @@
     <hyperlink ref="D3" r:id="rId1" display="https://leetcode.com/problems/two-sum/description/" xr:uid="{D29A1F65-8394-4D89-BD96-17CD60D15AFD}"/>
     <hyperlink ref="D4" r:id="rId2" xr:uid="{3A7CEF42-3337-4C95-84AC-B7CAF9B28B7F}"/>
     <hyperlink ref="D5" r:id="rId3" xr:uid="{6B70FD5E-C0D2-445D-BDB3-4DB279AB8A7B}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{A248292A-243F-409F-94AA-C731025CF02A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personal\leetcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\OneDrive - ARK\programs\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D107DDC7-E74A-44E6-B816-D60C3AFD838C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF1F131-368A-43AB-859E-D934125EBA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="4185" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>url</t>
   </si>
@@ -39,9 +39,6 @@
     <t>difficulty</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
     <t>datastructure</t>
   </si>
   <si>
@@ -54,9 +51,6 @@
     <t>highlight</t>
   </si>
   <si>
-    <t>medium</t>
-  </si>
-  <si>
     <t>http://rb.gy/4v8nxh</t>
   </si>
   <si>
@@ -93,9 +87,6 @@
     <t>O(n2)</t>
   </si>
   <si>
-    <t>Utilizes linked lists and pointer manipulation using the original insertion sort algorithm</t>
-  </si>
-  <si>
     <t xml:space="preserve">Utilize a dictionary to store the complement of each element needed to reach the target sum. </t>
   </si>
   <si>
@@ -103,6 +94,48 @@
   </si>
   <si>
     <t>Utilize a two-pointer approach with a sliding window technique.</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>Permutations</t>
+  </si>
+  <si>
+    <t>http://rb.gy/l4sr2z</t>
+  </si>
+  <si>
+    <t>Utilize Recursive backtracking algorithm.</t>
+  </si>
+  <si>
+    <t>Utilize linked lists and pointer manipulation using the original insertion sort algorithm.</t>
+  </si>
+  <si>
+    <t>Binary Tree Inorder Traversal</t>
+  </si>
+  <si>
+    <t>http://rb.gy/76tm22</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>Use Infinite while loop and stack</t>
+  </si>
+  <si>
+    <t>Reverse Linked List</t>
+  </si>
+  <si>
+    <t>http://rb.gy/1nj72g</t>
+  </si>
+  <si>
+    <t>Pointer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use pointers </t>
   </si>
 </sst>
 </file>
@@ -443,143 +476,216 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="44.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="84.5546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>46</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
+        <v>94</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>147</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>22</v>
+      <c r="G7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>206</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G8">
+    <sortCondition ref="A2:A8"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="https://leetcode.com/problems/two-sum/description/" xr:uid="{D29A1F65-8394-4D89-BD96-17CD60D15AFD}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{3A7CEF42-3337-4C95-84AC-B7CAF9B28B7F}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{6B70FD5E-C0D2-445D-BDB3-4DB279AB8A7B}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{A248292A-243F-409F-94AA-C731025CF02A}"/>
+    <hyperlink ref="D2" r:id="rId1" display="https://leetcode.com/problems/two-sum/description/" xr:uid="{D29A1F65-8394-4D89-BD96-17CD60D15AFD}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{3A7CEF42-3337-4C95-84AC-B7CAF9B28B7F}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{6B70FD5E-C0D2-445D-BDB3-4DB279AB8A7B}"/>
+    <hyperlink ref="D7" r:id="rId4" xr:uid="{A248292A-243F-409F-94AA-C731025CF02A}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{68AE57ED-F523-4FD0-8423-21CCC6C328A5}"/>
+    <hyperlink ref="D6" r:id="rId6" xr:uid="{7E99A919-0A12-4725-AEEE-0A6D4B0AEBE8}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{2E4AB602-75C1-45E8-B9E9-1B16196F8BB9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\OneDrive - ARK\programs\code\leetcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://agnesh-my.sharepoint.com/personal/agnesh_agnesh_onmicrosoft_com/Documents/programs/code/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF1F131-368A-43AB-859E-D934125EBA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{DAF1F131-368A-43AB-859E-D934125EBA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47D8D20A-3D07-4C0D-AD2E-F3808825D3FE}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="4185" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>url</t>
   </si>
@@ -136,6 +136,15 @@
   </si>
   <si>
     <t xml:space="preserve">Use pointers </t>
+  </si>
+  <si>
+    <t>Middle of the Linked List</t>
+  </si>
+  <si>
+    <t>http://rb.gy/nrugfa</t>
+  </si>
+  <si>
+    <t>Use a slow and a fast pointer.</t>
   </si>
 </sst>
 </file>
@@ -476,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -674,6 +683,29 @@
         <v>36</v>
       </c>
     </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>876</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G8">
     <sortCondition ref="A2:A8"/>
@@ -686,6 +718,7 @@
     <hyperlink ref="D5" r:id="rId5" xr:uid="{68AE57ED-F523-4FD0-8423-21CCC6C328A5}"/>
     <hyperlink ref="D6" r:id="rId6" xr:uid="{7E99A919-0A12-4725-AEEE-0A6D4B0AEBE8}"/>
     <hyperlink ref="D8" r:id="rId7" xr:uid="{2E4AB602-75C1-45E8-B9E9-1B16196F8BB9}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{9FDD29CA-7B6F-4D9C-B8AB-2CA22F1BD75D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://agnesh-my.sharepoint.com/personal/agnesh_agnesh_onmicrosoft_com/Documents/programs/code/leetcode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agneshk\pc\data\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{DAF1F131-368A-43AB-859E-D934125EBA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47D8D20A-3D07-4C0D-AD2E-F3808825D3FE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFBFD26-3A76-46F0-8225-DB8E3AB35DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="4185" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
   <si>
     <t>url</t>
   </si>
@@ -145,6 +145,36 @@
   </si>
   <si>
     <t>Use a slow and a fast pointer.</t>
+  </si>
+  <si>
+    <t>Maximum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>http://rb.gy/5wfid3</t>
+  </si>
+  <si>
+    <t>Use Recursion</t>
+  </si>
+  <si>
+    <t>Palindrome Linked List</t>
+  </si>
+  <si>
+    <t>http://rb.gy/bcqtel</t>
+  </si>
+  <si>
+    <t>Pointers</t>
+  </si>
+  <si>
+    <t>Use Middle of Linked List and Reverse Linked List.</t>
+  </si>
+  <si>
+    <t>Remove Nth Node From End of List</t>
+  </si>
+  <si>
+    <t>http://rb.gy/tqarfs</t>
+  </si>
+  <si>
+    <t>Use slow and fast pointer.</t>
   </si>
 </sst>
 </file>
@@ -485,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -596,129 +626,201 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>206</v>
+        <v>104</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
+        <v>147</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>206</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>234</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>876</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G8">
-    <sortCondition ref="A2:A8"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G12">
+    <sortCondition ref="A1:A12"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="https://leetcode.com/problems/two-sum/description/" xr:uid="{D29A1F65-8394-4D89-BD96-17CD60D15AFD}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{3A7CEF42-3337-4C95-84AC-B7CAF9B28B7F}"/>
     <hyperlink ref="D4" r:id="rId3" xr:uid="{6B70FD5E-C0D2-445D-BDB3-4DB279AB8A7B}"/>
-    <hyperlink ref="D7" r:id="rId4" xr:uid="{A248292A-243F-409F-94AA-C731025CF02A}"/>
-    <hyperlink ref="D5" r:id="rId5" xr:uid="{68AE57ED-F523-4FD0-8423-21CCC6C328A5}"/>
-    <hyperlink ref="D6" r:id="rId6" xr:uid="{7E99A919-0A12-4725-AEEE-0A6D4B0AEBE8}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{2E4AB602-75C1-45E8-B9E9-1B16196F8BB9}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{9FDD29CA-7B6F-4D9C-B8AB-2CA22F1BD75D}"/>
+    <hyperlink ref="D9" r:id="rId4" xr:uid="{A248292A-243F-409F-94AA-C731025CF02A}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{68AE57ED-F523-4FD0-8423-21CCC6C328A5}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{7E99A919-0A12-4725-AEEE-0A6D4B0AEBE8}"/>
+    <hyperlink ref="D10" r:id="rId7" xr:uid="{2E4AB602-75C1-45E8-B9E9-1B16196F8BB9}"/>
+    <hyperlink ref="D12" r:id="rId8" xr:uid="{9FDD29CA-7B6F-4D9C-B8AB-2CA22F1BD75D}"/>
+    <hyperlink ref="D8" r:id="rId9" xr:uid="{D47E6F13-2C77-4D9C-A0C2-3A61BB7DB7F7}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{9C7F51E0-A421-48E3-A675-090808C1F22C}"/>
+    <hyperlink ref="D5" r:id="rId11" xr:uid="{E51C5646-FEE1-44F7-91C4-364A6DFCFF85}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agneshk\pc\data\leetcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\OneDrive - ARK\programs\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFBFD26-3A76-46F0-8225-DB8E3AB35DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F7020D-8122-448D-AD64-1468E7835E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
   <si>
     <t>url</t>
   </si>
@@ -175,6 +175,15 @@
   </si>
   <si>
     <t>Use slow and fast pointer.</t>
+  </si>
+  <si>
+    <t>Two Sum II - Input Array Is Sorted</t>
+  </si>
+  <si>
+    <t>http://rb.gy/psjwn9</t>
+  </si>
+  <si>
+    <t>Use left and right pointers and the fact that the array is sorted</t>
   </si>
 </sst>
 </file>
@@ -515,24 +524,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="84.5546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="84.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -555,7 +564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -578,7 +587,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -601,7 +610,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>11</v>
       </c>
@@ -624,7 +633,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>19</v>
       </c>
@@ -647,7 +656,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>46</v>
       </c>
@@ -667,7 +676,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>94</v>
       </c>
@@ -690,7 +699,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>104</v>
       </c>
@@ -713,7 +722,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>147</v>
       </c>
@@ -736,78 +745,101 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
+        <v>167</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>206</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>234</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>876</v>
+        <v>234</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>876</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="F13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G12">
-    <sortCondition ref="A1:A12"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
+    <sortCondition ref="A2:A13"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="https://leetcode.com/problems/two-sum/description/" xr:uid="{D29A1F65-8394-4D89-BD96-17CD60D15AFD}"/>
@@ -816,11 +848,12 @@
     <hyperlink ref="D9" r:id="rId4" xr:uid="{A248292A-243F-409F-94AA-C731025CF02A}"/>
     <hyperlink ref="D6" r:id="rId5" xr:uid="{68AE57ED-F523-4FD0-8423-21CCC6C328A5}"/>
     <hyperlink ref="D7" r:id="rId6" xr:uid="{7E99A919-0A12-4725-AEEE-0A6D4B0AEBE8}"/>
-    <hyperlink ref="D10" r:id="rId7" xr:uid="{2E4AB602-75C1-45E8-B9E9-1B16196F8BB9}"/>
-    <hyperlink ref="D12" r:id="rId8" xr:uid="{9FDD29CA-7B6F-4D9C-B8AB-2CA22F1BD75D}"/>
+    <hyperlink ref="D11" r:id="rId7" xr:uid="{2E4AB602-75C1-45E8-B9E9-1B16196F8BB9}"/>
+    <hyperlink ref="D13" r:id="rId8" xr:uid="{9FDD29CA-7B6F-4D9C-B8AB-2CA22F1BD75D}"/>
     <hyperlink ref="D8" r:id="rId9" xr:uid="{D47E6F13-2C77-4D9C-A0C2-3A61BB7DB7F7}"/>
-    <hyperlink ref="D11" r:id="rId10" xr:uid="{9C7F51E0-A421-48E3-A675-090808C1F22C}"/>
+    <hyperlink ref="D12" r:id="rId10" xr:uid="{9C7F51E0-A421-48E3-A675-090808C1F22C}"/>
     <hyperlink ref="D5" r:id="rId11" xr:uid="{E51C5646-FEE1-44F7-91C4-364A6DFCFF85}"/>
+    <hyperlink ref="D10" r:id="rId12" xr:uid="{D3E7F543-6809-4756-9AED-0E4868030A9A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agneshk\pc\data\leetcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agneshk\pc\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFBFD26-3A76-46F0-8225-DB8E3AB35DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8153368D-1093-4667-AE79-BDCD107C3DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1605" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
   <si>
     <t>url</t>
   </si>
@@ -175,6 +175,27 @@
   </si>
   <si>
     <t>Use slow and fast pointer.</t>
+  </si>
+  <si>
+    <t>Kth Smallest Element in a BST</t>
+  </si>
+  <si>
+    <t>https://rebrand.ly/bb0tuzm</t>
+  </si>
+  <si>
+    <t>Use In-Order DFS along with a counter variable to stop the traversal.</t>
+  </si>
+  <si>
+    <t>https://rebrand.ly/e3bo9ay</t>
+  </si>
+  <si>
+    <t>O(log(n))</t>
+  </si>
+  <si>
+    <t>Use Binary Search Algorithm along with two pointer technique.</t>
+  </si>
+  <si>
+    <t>Two Sum II - Input Array Is Sorted</t>
   </si>
 </sst>
 </file>
@@ -198,15 +219,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -214,26 +247,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -515,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,13 +592,14 @@
     <col min="1" max="1" width="8.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="3" customWidth="1"/>
     <col min="6" max="6" width="10.109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="84.5546875" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -545,7 +612,7 @@
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -555,259 +622,306 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="8">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="8">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="8">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6" s="8">
         <v>46</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7" s="5">
         <v>94</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8" s="5">
         <v>104</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="A9" s="8">
         <v>147</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="A10" s="5">
         <v>206</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="A11" s="8">
+        <v>230</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
         <v>234</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G12" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
         <v>876</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G13" s="6" t="s">
         <v>39</v>
       </c>
     </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>167</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G12">
-    <sortCondition ref="A1:A12"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
+    <sortCondition ref="A1:A13"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="https://leetcode.com/problems/two-sum/description/" xr:uid="{D29A1F65-8394-4D89-BD96-17CD60D15AFD}"/>
@@ -817,11 +931,14 @@
     <hyperlink ref="D6" r:id="rId5" xr:uid="{68AE57ED-F523-4FD0-8423-21CCC6C328A5}"/>
     <hyperlink ref="D7" r:id="rId6" xr:uid="{7E99A919-0A12-4725-AEEE-0A6D4B0AEBE8}"/>
     <hyperlink ref="D10" r:id="rId7" xr:uid="{2E4AB602-75C1-45E8-B9E9-1B16196F8BB9}"/>
-    <hyperlink ref="D12" r:id="rId8" xr:uid="{9FDD29CA-7B6F-4D9C-B8AB-2CA22F1BD75D}"/>
+    <hyperlink ref="D13" r:id="rId8" xr:uid="{9FDD29CA-7B6F-4D9C-B8AB-2CA22F1BD75D}"/>
     <hyperlink ref="D8" r:id="rId9" xr:uid="{D47E6F13-2C77-4D9C-A0C2-3A61BB7DB7F7}"/>
-    <hyperlink ref="D11" r:id="rId10" xr:uid="{9C7F51E0-A421-48E3-A675-090808C1F22C}"/>
+    <hyperlink ref="D12" r:id="rId10" xr:uid="{9C7F51E0-A421-48E3-A675-090808C1F22C}"/>
     <hyperlink ref="D5" r:id="rId11" xr:uid="{E51C5646-FEE1-44F7-91C4-364A6DFCFF85}"/>
+    <hyperlink ref="D11" r:id="rId12" xr:uid="{EA1E0AA8-8F6F-4265-84F0-6C4AB0FA52AB}"/>
+    <hyperlink ref="D14" r:id="rId13" xr:uid="{1D16F9F4-D9DC-49D7-A64B-F7F293ADC1B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agneshk\pc\code\leetcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agneshk\pc\data\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF68DD9-A4BF-4723-A874-7ABC85A538E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA411C4-B31D-47F8-86D3-81F74FF23A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1605" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
   <si>
     <t>url</t>
   </si>
@@ -187,9 +187,6 @@
   </si>
   <si>
     <t>https://rebrand.ly/e3bo9ay</t>
-  </si>
-  <si>
-    <t>O(log(n))</t>
   </si>
   <si>
     <t>Use Binary Search Algorithm along with two pointer technique.</t>
@@ -584,7 +581,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -812,7 +809,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>53</v>
@@ -821,10 +818,10 @@
         <v>35</v>
       </c>
       <c r="F10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agneshk\pc\data\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA411C4-B31D-47F8-86D3-81F74FF23A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B0C03E-69CA-441A-BD49-CA4E127133BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1605" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -581,7 +581,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agneshk\pc\data\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B0C03E-69CA-441A-BD49-CA4E127133BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D04218-BC65-4817-BC80-B22CDD276318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1605" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
   <si>
     <t>url</t>
   </si>
@@ -193,6 +193,15 @@
   </si>
   <si>
     <t>Two Sum II - Input Array Is Sorted</t>
+  </si>
+  <si>
+    <t>Valid Parentheses</t>
+  </si>
+  <si>
+    <t>https://rebrand.ly/qxlndaw</t>
+  </si>
+  <si>
+    <t>Use a stack</t>
   </si>
 </sst>
 </file>
@@ -578,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -914,6 +923,29 @@
       </c>
       <c r="G14" s="6" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>20</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -934,8 +966,9 @@
     <hyperlink ref="D5" r:id="rId11" xr:uid="{E51C5646-FEE1-44F7-91C4-364A6DFCFF85}"/>
     <hyperlink ref="D12" r:id="rId12" xr:uid="{EA1E0AA8-8F6F-4265-84F0-6C4AB0FA52AB}"/>
     <hyperlink ref="D10" r:id="rId13" xr:uid="{1D16F9F4-D9DC-49D7-A64B-F7F293ADC1B4}"/>
+    <hyperlink ref="D15" r:id="rId14" xr:uid="{8550C157-C895-4E10-8151-A29957550A7F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agneshk\pc\data\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D04218-BC65-4817-BC80-B22CDD276318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43498D07-F08D-4DD4-BBDE-788A012443B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1605" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
   <si>
     <t>url</t>
   </si>
@@ -202,6 +202,15 @@
   </si>
   <si>
     <t>Use a stack</t>
+  </si>
+  <si>
+    <t>https://rebrand.ly/4t4p9zb</t>
+  </si>
+  <si>
+    <t>Use two pointers on each list and keep comparing until one goes invalid. Append the remaining to the result.</t>
+  </si>
+  <si>
+    <t>Merge Two Sorted Lists</t>
   </si>
 </sst>
 </file>
@@ -587,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -601,7 +610,7 @@
     <col min="4" max="4" width="24.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="3" customWidth="1"/>
     <col min="6" max="6" width="10.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="84.5546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="101.77734375" style="3" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
@@ -946,6 +955,29 @@
       </c>
       <c r="G15" s="6" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>21</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -967,8 +999,9 @@
     <hyperlink ref="D12" r:id="rId12" xr:uid="{EA1E0AA8-8F6F-4265-84F0-6C4AB0FA52AB}"/>
     <hyperlink ref="D10" r:id="rId13" xr:uid="{1D16F9F4-D9DC-49D7-A64B-F7F293ADC1B4}"/>
     <hyperlink ref="D15" r:id="rId14" xr:uid="{8550C157-C895-4E10-8151-A29957550A7F}"/>
+    <hyperlink ref="D16" r:id="rId15" xr:uid="{2BC18D0F-9C3B-484A-9BAB-F5F1860DAAB1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agneshk\pc\data\leetcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\OneDrive - ARK\programs\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43498D07-F08D-4DD4-BBDE-788A012443B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C8264E-E17D-443E-AA4C-34BEA62B69C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1605" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="65">
   <si>
     <t>url</t>
   </si>
@@ -211,6 +211,15 @@
   </si>
   <si>
     <t>Merge Two Sorted Lists</t>
+  </si>
+  <si>
+    <t>Average Waiting Time</t>
+  </si>
+  <si>
+    <t>http://rb.gy/j9g4fl</t>
+  </si>
+  <si>
+    <t>Solve by drawing a timeline</t>
   </si>
 </sst>
 </file>
@@ -596,25 +605,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="101.77734375" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="11"/>
+    <col min="1" max="1" width="8.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="101.7109375" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -637,7 +646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -660,7 +669,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>3</v>
       </c>
@@ -683,7 +692,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>11</v>
       </c>
@@ -706,7 +715,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>19</v>
       </c>
@@ -729,7 +738,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>46</v>
       </c>
@@ -750,7 +759,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>94</v>
       </c>
@@ -773,7 +782,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>104</v>
       </c>
@@ -796,7 +805,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>147</v>
       </c>
@@ -819,7 +828,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>167</v>
       </c>
@@ -842,7 +851,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>206</v>
       </c>
@@ -865,7 +874,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>230</v>
       </c>
@@ -888,7 +897,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>234</v>
       </c>
@@ -911,7 +920,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>876</v>
       </c>
@@ -934,7 +943,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>20</v>
       </c>
@@ -957,7 +966,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>21</v>
       </c>
@@ -978,6 +987,27 @@
       </c>
       <c r="G16" s="6" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>1701</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1000,8 +1030,9 @@
     <hyperlink ref="D10" r:id="rId13" xr:uid="{1D16F9F4-D9DC-49D7-A64B-F7F293ADC1B4}"/>
     <hyperlink ref="D15" r:id="rId14" xr:uid="{8550C157-C895-4E10-8151-A29957550A7F}"/>
     <hyperlink ref="D16" r:id="rId15" xr:uid="{2BC18D0F-9C3B-484A-9BAB-F5F1860DAAB1}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{3651F195-4484-4B60-9381-160A18299D79}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\OneDrive - ARK\programs\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C8264E-E17D-443E-AA4C-34BEA62B69C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CF3D5F-E39B-46E1-937C-E78608CC18C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="68">
   <si>
     <t>url</t>
   </si>
@@ -220,6 +220,15 @@
   </si>
   <si>
     <t>Solve by drawing a timeline</t>
+  </si>
+  <si>
+    <t>Reverse Substrings Between Each Pair of Parentheses</t>
+  </si>
+  <si>
+    <t>http://rb.gy/0h2e8g</t>
+  </si>
+  <si>
+    <t>Use the stack cleverly</t>
   </si>
 </sst>
 </file>
@@ -605,17 +614,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" style="3" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" style="3" customWidth="1"/>
     <col min="6" max="6" width="10.140625" style="1" customWidth="1"/>
@@ -715,7 +724,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>19</v>
       </c>
@@ -1008,6 +1017,29 @@
       </c>
       <c r="G17" s="9" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>1190</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1031,8 +1063,9 @@
     <hyperlink ref="D15" r:id="rId14" xr:uid="{8550C157-C895-4E10-8151-A29957550A7F}"/>
     <hyperlink ref="D16" r:id="rId15" xr:uid="{2BC18D0F-9C3B-484A-9BAB-F5F1860DAAB1}"/>
     <hyperlink ref="D17" r:id="rId16" xr:uid="{3651F195-4484-4B60-9381-160A18299D79}"/>
+    <hyperlink ref="D18" r:id="rId17" xr:uid="{636A9039-9CA1-4DCC-A5DB-79562BBBC056}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\OneDrive - ARK\programs\code\leetcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agneshk\pc\data\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CF3D5F-E39B-46E1-937C-E78608CC18C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CCA355-5E11-45D5-B351-76310804F460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1605" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="72">
   <si>
     <t>url</t>
   </si>
@@ -229,6 +229,18 @@
   </si>
   <si>
     <t>Use the stack cleverly</t>
+  </si>
+  <si>
+    <t>Same Tree</t>
+  </si>
+  <si>
+    <t>https://rebrand.ly/zzen77f</t>
+  </si>
+  <si>
+    <t>Recursion</t>
+  </si>
+  <si>
+    <t>Use recurrsion cleverly</t>
   </si>
 </sst>
 </file>
@@ -614,25 +626,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="51.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="101.7109375" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="11"/>
+    <col min="1" max="1" width="8.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="101.6640625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -655,7 +667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -678,7 +690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>3</v>
       </c>
@@ -701,7 +713,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>11</v>
       </c>
@@ -724,7 +736,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>19</v>
       </c>
@@ -747,7 +759,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>46</v>
       </c>
@@ -768,7 +780,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>94</v>
       </c>
@@ -791,7 +803,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>104</v>
       </c>
@@ -814,7 +826,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>147</v>
       </c>
@@ -837,7 +849,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>167</v>
       </c>
@@ -860,7 +872,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>206</v>
       </c>
@@ -883,7 +895,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>230</v>
       </c>
@@ -906,7 +918,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>234</v>
       </c>
@@ -929,7 +941,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>876</v>
       </c>
@@ -952,7 +964,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>20</v>
       </c>
@@ -975,7 +987,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>21</v>
       </c>
@@ -998,7 +1010,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>1701</v>
       </c>
@@ -1019,7 +1031,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>1190</v>
       </c>
@@ -1040,6 +1052,29 @@
       </c>
       <c r="G18" s="9" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>100</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1064,8 +1099,9 @@
     <hyperlink ref="D16" r:id="rId15" xr:uid="{2BC18D0F-9C3B-484A-9BAB-F5F1860DAAB1}"/>
     <hyperlink ref="D17" r:id="rId16" xr:uid="{3651F195-4484-4B60-9381-160A18299D79}"/>
     <hyperlink ref="D18" r:id="rId17" xr:uid="{636A9039-9CA1-4DCC-A5DB-79562BBBC056}"/>
+    <hyperlink ref="D19" r:id="rId18" xr:uid="{DC17FDF3-9A9B-4FEA-9D6A-DF4252E08036}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agneshk\pc\data\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CCA355-5E11-45D5-B351-76310804F460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674A4111-5902-408C-8F95-593B96B3094F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1605" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>difficulty</t>
   </si>
   <si>
-    <t>datastructure</t>
-  </si>
-  <si>
     <t>efficient O</t>
   </si>
   <si>
@@ -241,6 +238,9 @@
   </si>
   <si>
     <t>Use recurrsion cleverly</t>
+  </si>
+  <si>
+    <t>Approach</t>
   </si>
 </sst>
 </file>
@@ -312,7 +312,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -345,6 +345,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -626,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -652,19 +655,19 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -672,22 +675,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -695,22 +698,22 @@
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -718,22 +721,22 @@
         <v>11</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -741,22 +744,22 @@
         <v>19</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -764,20 +767,20 @@
         <v>46</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="E6" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -785,22 +788,22 @@
         <v>94</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -808,22 +811,22 @@
         <v>104</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -831,22 +834,22 @@
         <v>147</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>17</v>
-      </c>
       <c r="F9" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -854,22 +857,22 @@
         <v>167</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -877,22 +880,22 @@
         <v>206</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -900,22 +903,22 @@
         <v>230</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="E12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -923,22 +926,22 @@
         <v>234</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -946,22 +949,22 @@
         <v>876</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -969,22 +972,22 @@
         <v>20</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -992,22 +995,22 @@
         <v>21</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1015,20 +1018,20 @@
         <v>1701</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>63</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1036,22 +1039,22 @@
         <v>1190</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="E18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1059,23 +1062,26 @@
         <v>100</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="E19" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="F19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>71</v>
-      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D20" s="12"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agneshk\pc\data\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674A4111-5902-408C-8F95-593B96B3094F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A003D1CE-5E46-4998-836F-4BD9ED6F93CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1605" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="75">
   <si>
     <t>url</t>
   </si>
@@ -241,6 +241,15 @@
   </si>
   <si>
     <t>Approach</t>
+  </si>
+  <si>
+    <t>Invert Binary Tree</t>
+  </si>
+  <si>
+    <t>https://shorturl.at/Lq38f</t>
+  </si>
+  <si>
+    <t>Simple recursion</t>
   </si>
 </sst>
 </file>
@@ -312,7 +321,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -345,9 +354,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -632,7 +638,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1081,7 +1087,27 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D20" s="12"/>
+      <c r="A20" s="5">
+        <v>226</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
@@ -1106,8 +1132,9 @@
     <hyperlink ref="D17" r:id="rId16" xr:uid="{3651F195-4484-4B60-9381-160A18299D79}"/>
     <hyperlink ref="D18" r:id="rId17" xr:uid="{636A9039-9CA1-4DCC-A5DB-79562BBBC056}"/>
     <hyperlink ref="D19" r:id="rId18" xr:uid="{DC17FDF3-9A9B-4FEA-9D6A-DF4252E08036}"/>
+    <hyperlink ref="D20" r:id="rId19" xr:uid="{6F6969B7-A411-4085-9E8F-58E3BF1FF942}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agneshk\pc\data\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A003D1CE-5E46-4998-836F-4BD9ED6F93CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D0700E-E50D-4512-B674-CBB9E5A0E35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1605" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="79">
   <si>
     <t>url</t>
   </si>
@@ -250,6 +250,18 @@
   </si>
   <si>
     <t>Simple recursion</t>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal</t>
+  </si>
+  <si>
+    <t>https://shorturl.at/89NnQ</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>Use DFS using queues and use a counter variable (size) to get the level arrays inside the res array.</t>
   </si>
 </sst>
 </file>
@@ -635,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1107,6 +1119,29 @@
       </c>
       <c r="G20" s="6" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>102</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1133,8 +1168,9 @@
     <hyperlink ref="D18" r:id="rId17" xr:uid="{636A9039-9CA1-4DCC-A5DB-79562BBBC056}"/>
     <hyperlink ref="D19" r:id="rId18" xr:uid="{DC17FDF3-9A9B-4FEA-9D6A-DF4252E08036}"/>
     <hyperlink ref="D20" r:id="rId19" xr:uid="{6F6969B7-A411-4085-9E8F-58E3BF1FF942}"/>
+    <hyperlink ref="D21" r:id="rId20" xr:uid="{CA194911-BED7-40B0-B5B4-D5638F409E73}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agneshk\pc\data\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D0700E-E50D-4512-B674-CBB9E5A0E35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71787E5-6282-46FB-BE2E-352404FFABE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1605" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="85">
   <si>
     <t>url</t>
   </si>
@@ -262,12 +262,33 @@
   </si>
   <si>
     <t>Use DFS using queues and use a counter variable (size) to get the level arrays inside the res array.</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Subtree of Another Tree</t>
+  </si>
+  <si>
+    <t>https://shorturl.at/MWP2V</t>
+  </si>
+  <si>
+    <t>BFS + Recursion</t>
+  </si>
+  <si>
+    <t>O(n^2)</t>
+  </si>
+  <si>
+    <t>Use BFS and the algorithm the check is two trees are same (lc 100: same tree)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -333,7 +354,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -366,6 +387,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -647,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A22" sqref="A22:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -662,10 +688,11 @@
     <col min="5" max="5" width="13.33203125" style="3" customWidth="1"/>
     <col min="6" max="6" width="10.109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="101.6640625" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="11"/>
+    <col min="8" max="8" width="11.21875" style="13" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -687,8 +714,11 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H1" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -710,8 +740,9 @@
       <c r="G2" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>3</v>
       </c>
@@ -734,7 +765,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>11</v>
       </c>
@@ -757,7 +788,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>19</v>
       </c>
@@ -780,7 +811,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>46</v>
       </c>
@@ -801,7 +832,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>94</v>
       </c>
@@ -824,7 +855,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>104</v>
       </c>
@@ -847,7 +878,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>147</v>
       </c>
@@ -870,7 +901,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>167</v>
       </c>
@@ -893,7 +924,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>206</v>
       </c>
@@ -916,7 +947,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>230</v>
       </c>
@@ -939,7 +970,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>234</v>
       </c>
@@ -962,7 +993,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>876</v>
       </c>
@@ -985,7 +1016,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>20</v>
       </c>
@@ -1008,7 +1039,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>21</v>
       </c>
@@ -1031,7 +1062,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>1701</v>
       </c>
@@ -1052,7 +1083,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>1190</v>
       </c>
@@ -1075,7 +1106,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>100</v>
       </c>
@@ -1098,7 +1129,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>226</v>
       </c>
@@ -1121,7 +1152,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>102</v>
       </c>
@@ -1142,6 +1173,32 @@
       </c>
       <c r="G21" s="6" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>572</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H22" s="14">
+        <v>45492</v>
       </c>
     </row>
   </sheetData>
@@ -1169,8 +1226,9 @@
     <hyperlink ref="D19" r:id="rId18" xr:uid="{DC17FDF3-9A9B-4FEA-9D6A-DF4252E08036}"/>
     <hyperlink ref="D20" r:id="rId19" xr:uid="{6F6969B7-A411-4085-9E8F-58E3BF1FF942}"/>
     <hyperlink ref="D21" r:id="rId20" xr:uid="{CA194911-BED7-40B0-B5B4-D5638F409E73}"/>
+    <hyperlink ref="D22" r:id="rId21" xr:uid="{3BF7A565-83B5-4AAE-BAC3-B58A69DEAE20}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agneshk\pc\data\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71787E5-6282-46FB-BE2E-352404FFABE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7E80E1-8FDC-4130-BF3F-D8F420D8EF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1605" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="88">
   <si>
     <t>url</t>
   </si>
@@ -280,6 +280,15 @@
   </si>
   <si>
     <t>Use BFS and the algorithm the check is two trees are same (lc 100: same tree)</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock</t>
+  </si>
+  <si>
+    <t>https://shorturl.at/Ugo4p</t>
+  </si>
+  <si>
+    <t>Non-intuitive logic, but forming the test cases and then testing the solution works</t>
   </si>
 </sst>
 </file>
@@ -287,7 +296,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -387,11 +396,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -673,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:H22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1199,6 +1208,30 @@
       </c>
       <c r="H22" s="14">
         <v>45492</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>121</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" s="14">
+        <v>45496</v>
       </c>
     </row>
   </sheetData>
@@ -1227,8 +1260,9 @@
     <hyperlink ref="D20" r:id="rId19" xr:uid="{6F6969B7-A411-4085-9E8F-58E3BF1FF942}"/>
     <hyperlink ref="D21" r:id="rId20" xr:uid="{CA194911-BED7-40B0-B5B4-D5638F409E73}"/>
     <hyperlink ref="D22" r:id="rId21" xr:uid="{3BF7A565-83B5-4AAE-BAC3-B58A69DEAE20}"/>
+    <hyperlink ref="D23" r:id="rId22" xr:uid="{8D63FD65-E0C5-4A54-BDEF-860350E0B7FD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agneshk\pc\data\leetcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\OneDrive - ARK\programs\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7E80E1-8FDC-4130-BF3F-D8F420D8EF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDAB9B5-D247-48B6-9707-38C12D22EC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1605" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="93">
   <si>
     <t>url</t>
   </si>
@@ -289,6 +289,21 @@
   </si>
   <si>
     <t>Non-intuitive logic, but forming the test cases and then testing the solution works</t>
+  </si>
+  <si>
+    <t>Sort the Jumbled Numbers</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sort-the-jumbled-numbers/description/</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>O(nd+logn)</t>
+  </si>
+  <si>
+    <t>Encode the numbers according to the map, store (encoded_num, index) in a list. Exploit python's sort feature.</t>
   </si>
 </sst>
 </file>
@@ -682,26 +697,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="51.44140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="101.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.21875" style="13" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="11"/>
+    <col min="1" max="1" width="8.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="101.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="13" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -727,7 +742,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -751,7 +766,7 @@
       </c>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>3</v>
       </c>
@@ -774,7 +789,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>11</v>
       </c>
@@ -797,7 +812,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>19</v>
       </c>
@@ -820,7 +835,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>46</v>
       </c>
@@ -841,7 +856,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>94</v>
       </c>
@@ -864,7 +879,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>104</v>
       </c>
@@ -887,7 +902,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>147</v>
       </c>
@@ -910,7 +925,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>167</v>
       </c>
@@ -933,7 +948,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>206</v>
       </c>
@@ -956,7 +971,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>230</v>
       </c>
@@ -979,7 +994,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>234</v>
       </c>
@@ -1002,7 +1017,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>876</v>
       </c>
@@ -1025,7 +1040,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>20</v>
       </c>
@@ -1048,7 +1063,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>21</v>
       </c>
@@ -1071,7 +1086,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>1701</v>
       </c>
@@ -1092,7 +1107,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>1190</v>
       </c>
@@ -1115,7 +1130,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>100</v>
       </c>
@@ -1138,7 +1153,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>226</v>
       </c>
@@ -1161,7 +1176,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>102</v>
       </c>
@@ -1184,7 +1199,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>572</v>
       </c>
@@ -1210,7 +1225,7 @@
         <v>45492</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>121</v>
       </c>
@@ -1232,6 +1247,32 @@
       </c>
       <c r="H23" s="14">
         <v>45496</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>2191</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" s="14">
+        <v>45497</v>
       </c>
     </row>
   </sheetData>
@@ -1261,8 +1302,9 @@
     <hyperlink ref="D21" r:id="rId20" xr:uid="{CA194911-BED7-40B0-B5B4-D5638F409E73}"/>
     <hyperlink ref="D22" r:id="rId21" xr:uid="{3BF7A565-83B5-4AAE-BAC3-B58A69DEAE20}"/>
     <hyperlink ref="D23" r:id="rId22" xr:uid="{8D63FD65-E0C5-4A54-BDEF-860350E0B7FD}"/>
+    <hyperlink ref="D24" r:id="rId23" xr:uid="{90C58A53-6B5A-4F1A-AF8C-7CD4898E0DE7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId23"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>
--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agneshk\pc\data\leetcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\OneDrive - ARK\programs\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7E80E1-8FDC-4130-BF3F-D8F420D8EF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3E0738-3C02-4D82-97D1-8981FFBE3314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1605" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="93">
   <si>
     <t>url</t>
   </si>
@@ -289,6 +289,21 @@
   </si>
   <si>
     <t>Non-intuitive logic, but forming the test cases and then testing the solution works</t>
+  </si>
+  <si>
+    <t>Sort the Jumbled Numbers</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sort-the-jumbled-numbers/description/</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>O(nd+logn)</t>
+  </si>
+  <si>
+    <t>Encode the numbers according to the map, store (encoded_num, index) in a list. Exploit python's sort feature. Check the notes, this is good problem.</t>
   </si>
 </sst>
 </file>
@@ -682,26 +697,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="D9" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="51.44140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="101.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.21875" style="13" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="11"/>
+    <col min="1" max="1" width="8.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="101.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="13" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -727,7 +742,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -751,7 +766,7 @@
       </c>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>3</v>
       </c>
@@ -774,7 +789,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>11</v>
       </c>
@@ -797,7 +812,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>19</v>
       </c>
@@ -820,7 +835,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>46</v>
       </c>
@@ -841,7 +856,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>94</v>
       </c>
@@ -864,7 +879,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>104</v>
       </c>
@@ -887,7 +902,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>147</v>
       </c>
@@ -910,7 +925,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>167</v>
       </c>
@@ -933,7 +948,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>206</v>
       </c>
@@ -956,7 +971,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>230</v>
       </c>
@@ -979,7 +994,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>234</v>
       </c>
@@ -1002,7 +1017,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>876</v>
       </c>
@@ -1025,7 +1040,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>20</v>
       </c>
@@ -1048,7 +1063,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>21</v>
       </c>
@@ -1071,7 +1086,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>1701</v>
       </c>
@@ -1092,7 +1107,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>1190</v>
       </c>
@@ -1115,7 +1130,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>100</v>
       </c>
@@ -1138,7 +1153,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>226</v>
       </c>
@@ -1161,7 +1176,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>102</v>
       </c>
@@ -1184,7 +1199,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>572</v>
       </c>
@@ -1210,7 +1225,7 @@
         <v>45492</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>121</v>
       </c>
@@ -1232,6 +1247,32 @@
       </c>
       <c r="H23" s="14">
         <v>45496</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>2191</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" s="14">
+        <v>45497</v>
       </c>
     </row>
   </sheetData>
@@ -1261,8 +1302,9 @@
     <hyperlink ref="D21" r:id="rId20" xr:uid="{CA194911-BED7-40B0-B5B4-D5638F409E73}"/>
     <hyperlink ref="D22" r:id="rId21" xr:uid="{3BF7A565-83B5-4AAE-BAC3-B58A69DEAE20}"/>
     <hyperlink ref="D23" r:id="rId22" xr:uid="{8D63FD65-E0C5-4A54-BDEF-860350E0B7FD}"/>
+    <hyperlink ref="D24" r:id="rId23" xr:uid="{90C58A53-6B5A-4F1A-AF8C-7CD4898E0DE7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId23"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>
--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\OneDrive - ARK\programs\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3E0738-3C02-4D82-97D1-8981FFBE3314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257D66A1-FAC6-4757-83FF-E32497841243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="100">
   <si>
     <t>url</t>
   </si>
@@ -304,6 +304,27 @@
   </si>
   <si>
     <t>Encode the numbers according to the map, store (encoded_num, index) in a list. Exploit python's sort feature. Check the notes, this is good problem.</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>Binary Tree Maximum Path Sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-maximum-path-sum/description/</t>
+  </si>
+  <si>
+    <t>Checkout neetcodeio and my recorded video.</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>Binary Tree</t>
+  </si>
+  <si>
+    <t>blind75</t>
   </si>
 </sst>
 </file>
@@ -330,7 +351,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -346,6 +367,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,7 +405,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -416,6 +443,17 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -697,26 +735,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D9" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="51.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="48" style="3" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" style="3" customWidth="1"/>
     <col min="6" max="6" width="10.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="101.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="13" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="11"/>
+    <col min="8" max="8" width="12.85546875" style="13" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="11" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -741,8 +780,11 @@
       <c r="H1" s="12" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -766,7 +808,7 @@
       </c>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>3</v>
       </c>
@@ -789,7 +831,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>11</v>
       </c>
@@ -812,7 +854,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>19</v>
       </c>
@@ -835,476 +877,509 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>46</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>20</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>46</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>94</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="6" t="s">
+      <c r="F9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>100</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>102</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>104</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="F12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>147</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>167</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>206</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>230</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>234</v>
+        <v>121</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>44</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="E13" s="6"/>
       <c r="F13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>876</v>
-      </c>
-      <c r="B14" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="14">
+        <v>45496</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>142</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" s="18">
+        <v>45500</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>147</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>167</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>206</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="C17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>20</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="F17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>226</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="C18" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>230</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>21</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>1701</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>1190</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>100</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>70</v>
+      <c r="F19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>102</v>
+        <v>572</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>78</v>
+        <v>84</v>
+      </c>
+      <c r="H21" s="14">
+        <v>45492</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>572</v>
+        <v>876</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H22" s="14">
-        <v>45492</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>121</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H23" s="14">
-        <v>45496</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>1190</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>1701</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
         <v>2191</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E25" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F25" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G25" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H25" s="14">
         <v>45497</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
-    <sortCondition ref="A2:A14"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J25">
+    <sortCondition ref="A2:A25"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="https://leetcode.com/problems/two-sum/description/" xr:uid="{D29A1F65-8394-4D89-BD96-17CD60D15AFD}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{3A7CEF42-3337-4C95-84AC-B7CAF9B28B7F}"/>
     <hyperlink ref="D4" r:id="rId3" xr:uid="{6B70FD5E-C0D2-445D-BDB3-4DB279AB8A7B}"/>
-    <hyperlink ref="D9" r:id="rId4" xr:uid="{A248292A-243F-409F-94AA-C731025CF02A}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{68AE57ED-F523-4FD0-8423-21CCC6C328A5}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{7E99A919-0A12-4725-AEEE-0A6D4B0AEBE8}"/>
-    <hyperlink ref="D11" r:id="rId7" xr:uid="{2E4AB602-75C1-45E8-B9E9-1B16196F8BB9}"/>
-    <hyperlink ref="D14" r:id="rId8" xr:uid="{9FDD29CA-7B6F-4D9C-B8AB-2CA22F1BD75D}"/>
-    <hyperlink ref="D8" r:id="rId9" xr:uid="{D47E6F13-2C77-4D9C-A0C2-3A61BB7DB7F7}"/>
-    <hyperlink ref="D13" r:id="rId10" xr:uid="{9C7F51E0-A421-48E3-A675-090808C1F22C}"/>
+    <hyperlink ref="D15" r:id="rId4" xr:uid="{A248292A-243F-409F-94AA-C731025CF02A}"/>
+    <hyperlink ref="D8" r:id="rId5" xr:uid="{68AE57ED-F523-4FD0-8423-21CCC6C328A5}"/>
+    <hyperlink ref="D9" r:id="rId6" xr:uid="{7E99A919-0A12-4725-AEEE-0A6D4B0AEBE8}"/>
+    <hyperlink ref="D17" r:id="rId7" xr:uid="{2E4AB602-75C1-45E8-B9E9-1B16196F8BB9}"/>
+    <hyperlink ref="D22" r:id="rId8" xr:uid="{9FDD29CA-7B6F-4D9C-B8AB-2CA22F1BD75D}"/>
+    <hyperlink ref="D12" r:id="rId9" xr:uid="{D47E6F13-2C77-4D9C-A0C2-3A61BB7DB7F7}"/>
+    <hyperlink ref="D20" r:id="rId10" xr:uid="{9C7F51E0-A421-48E3-A675-090808C1F22C}"/>
     <hyperlink ref="D5" r:id="rId11" xr:uid="{E51C5646-FEE1-44F7-91C4-364A6DFCFF85}"/>
-    <hyperlink ref="D12" r:id="rId12" xr:uid="{EA1E0AA8-8F6F-4265-84F0-6C4AB0FA52AB}"/>
-    <hyperlink ref="D10" r:id="rId13" xr:uid="{1D16F9F4-D9DC-49D7-A64B-F7F293ADC1B4}"/>
-    <hyperlink ref="D15" r:id="rId14" xr:uid="{8550C157-C895-4E10-8151-A29957550A7F}"/>
-    <hyperlink ref="D16" r:id="rId15" xr:uid="{2BC18D0F-9C3B-484A-9BAB-F5F1860DAAB1}"/>
-    <hyperlink ref="D17" r:id="rId16" xr:uid="{3651F195-4484-4B60-9381-160A18299D79}"/>
-    <hyperlink ref="D18" r:id="rId17" xr:uid="{636A9039-9CA1-4DCC-A5DB-79562BBBC056}"/>
-    <hyperlink ref="D19" r:id="rId18" xr:uid="{DC17FDF3-9A9B-4FEA-9D6A-DF4252E08036}"/>
-    <hyperlink ref="D20" r:id="rId19" xr:uid="{6F6969B7-A411-4085-9E8F-58E3BF1FF942}"/>
-    <hyperlink ref="D21" r:id="rId20" xr:uid="{CA194911-BED7-40B0-B5B4-D5638F409E73}"/>
-    <hyperlink ref="D22" r:id="rId21" xr:uid="{3BF7A565-83B5-4AAE-BAC3-B58A69DEAE20}"/>
-    <hyperlink ref="D23" r:id="rId22" xr:uid="{8D63FD65-E0C5-4A54-BDEF-860350E0B7FD}"/>
-    <hyperlink ref="D24" r:id="rId23" xr:uid="{90C58A53-6B5A-4F1A-AF8C-7CD4898E0DE7}"/>
+    <hyperlink ref="D19" r:id="rId12" xr:uid="{EA1E0AA8-8F6F-4265-84F0-6C4AB0FA52AB}"/>
+    <hyperlink ref="D16" r:id="rId13" xr:uid="{1D16F9F4-D9DC-49D7-A64B-F7F293ADC1B4}"/>
+    <hyperlink ref="D6" r:id="rId14" xr:uid="{8550C157-C895-4E10-8151-A29957550A7F}"/>
+    <hyperlink ref="D7" r:id="rId15" xr:uid="{2BC18D0F-9C3B-484A-9BAB-F5F1860DAAB1}"/>
+    <hyperlink ref="D24" r:id="rId16" xr:uid="{3651F195-4484-4B60-9381-160A18299D79}"/>
+    <hyperlink ref="D23" r:id="rId17" xr:uid="{636A9039-9CA1-4DCC-A5DB-79562BBBC056}"/>
+    <hyperlink ref="D10" r:id="rId18" xr:uid="{DC17FDF3-9A9B-4FEA-9D6A-DF4252E08036}"/>
+    <hyperlink ref="D18" r:id="rId19" xr:uid="{6F6969B7-A411-4085-9E8F-58E3BF1FF942}"/>
+    <hyperlink ref="D11" r:id="rId20" xr:uid="{CA194911-BED7-40B0-B5B4-D5638F409E73}"/>
+    <hyperlink ref="D21" r:id="rId21" xr:uid="{3BF7A565-83B5-4AAE-BAC3-B58A69DEAE20}"/>
+    <hyperlink ref="D13" r:id="rId22" xr:uid="{8D63FD65-E0C5-4A54-BDEF-860350E0B7FD}"/>
+    <hyperlink ref="D25" r:id="rId23" xr:uid="{90C58A53-6B5A-4F1A-AF8C-7CD4898E0DE7}"/>
+    <hyperlink ref="D14" r:id="rId24" xr:uid="{E3888C7C-DDBB-4226-8610-B38F3E7E7E6D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId24"/>
+  <pageSetup orientation="portrait" r:id="rId25"/>
 </worksheet>
 </file>
--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\OneDrive - ARK\programs\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257D66A1-FAC6-4757-83FF-E32497841243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5767D17-C7A8-480E-8619-F624B39CD4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="126">
   <si>
     <t>url</t>
   </si>
@@ -325,6 +325,84 @@
   </si>
   <si>
     <t>blind75</t>
+  </si>
+  <si>
+    <t>Arrays/Hashing</t>
+  </si>
+  <si>
+    <t>Valid Anagram</t>
+  </si>
+  <si>
+    <t>Contains Duplicate</t>
+  </si>
+  <si>
+    <t>Group Anagrams</t>
+  </si>
+  <si>
+    <t>Top K Fequent Elements</t>
+  </si>
+  <si>
+    <t>Encode and Decode Strings</t>
+  </si>
+  <si>
+    <t>Product of Array Except Itself</t>
+  </si>
+  <si>
+    <t>Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>Valid Palindrome</t>
+  </si>
+  <si>
+    <t>Two Pointers</t>
+  </si>
+  <si>
+    <t>3 Sum</t>
+  </si>
+  <si>
+    <t>Sliding Window</t>
+  </si>
+  <si>
+    <t>Longest Repeating Character Replacement</t>
+  </si>
+  <si>
+    <t>Minimum Window Substring</t>
+  </si>
+  <si>
+    <t>Find Minimum In Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>Search in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>Linked Lists</t>
+  </si>
+  <si>
+    <t>Reorder Lists</t>
+  </si>
+  <si>
+    <t>Linked List Cycle</t>
+  </si>
+  <si>
+    <t>LinkedList</t>
+  </si>
+  <si>
+    <t>Merge K Sorted Lists</t>
+  </si>
+  <si>
+    <t>Binary Trees</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-anagram/description/</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Use a defaultdict</t>
   </si>
 </sst>
 </file>
@@ -334,7 +412,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,6 +428,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -360,19 +444,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,7 +489,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -419,6 +503,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -428,6 +513,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -437,12 +523,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -452,8 +533,22 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -735,24 +830,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:J14"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="48" style="3" customWidth="1"/>
+    <col min="3" max="3" width="50.42578125" style="3" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" style="3" customWidth="1"/>
     <col min="6" max="6" width="10.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="101.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="13" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="11" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="11"/>
+    <col min="8" max="8" width="12.85546875" style="19" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="1"/>
+    <col min="11" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -777,609 +873,930 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="J1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="17" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
+        <v>1701</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="20"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+    </row>
+    <row r="3" spans="1:10" s="13" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>121</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="21">
+        <v>45496</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="13" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>94</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="21"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>102</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="21"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>142</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" s="22">
+        <v>45500</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>11</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="20"/>
+      <c r="I7" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>147</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>226</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="21"/>
+      <c r="I9" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>230</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>3</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>104</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="21"/>
+      <c r="I12" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>21</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="21"/>
+      <c r="I13" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>876</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="21"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>234</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="21"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>46</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>19</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>206</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="21"/>
+      <c r="I18" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <v>1190</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+    </row>
+    <row r="20" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>100</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="21"/>
+      <c r="I20" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>2191</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" s="21">
+        <v>45497</v>
+      </c>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" spans="1:10" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>572</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H22" s="21">
+        <v>45492</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B23" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C23" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D23" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="F23" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>3</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="H23" s="21"/>
+      <c r="I23" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
+        <v>167</v>
+      </c>
+      <c r="B24" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="9" t="s">
+      <c r="C24" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+    </row>
+    <row r="25" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>11</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>19</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>20</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="B25" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C25" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D25" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E25" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="F25" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="11" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>21</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="H25" s="21"/>
+      <c r="I25" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>242</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>46</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>94</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="C26" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H26" s="21">
+        <v>45500</v>
+      </c>
+      <c r="I26" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="J26" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C27" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="I27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C28" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C29" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="I29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C30" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C31" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C32" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C33" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C34" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C35" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C37" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C38" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C39" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C40" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H13" s="14">
-        <v>45496</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
-        <v>142</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="H14" s="18">
-        <v>45500</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>147</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>167</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>206</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>226</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
-        <v>230</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>234</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>572</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H21" s="14">
-        <v>45492</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>876</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
-        <v>1190</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <v>1701</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>2191</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H25" s="14">
-        <v>45497</v>
+      <c r="I41" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J25">
-    <sortCondition ref="A2:A25"/>
+    <sortCondition ref="C2:C25"/>
   </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://leetcode.com/problems/two-sum/description/" xr:uid="{D29A1F65-8394-4D89-BD96-17CD60D15AFD}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{3A7CEF42-3337-4C95-84AC-B7CAF9B28B7F}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{6B70FD5E-C0D2-445D-BDB3-4DB279AB8A7B}"/>
-    <hyperlink ref="D15" r:id="rId4" xr:uid="{A248292A-243F-409F-94AA-C731025CF02A}"/>
-    <hyperlink ref="D8" r:id="rId5" xr:uid="{68AE57ED-F523-4FD0-8423-21CCC6C328A5}"/>
-    <hyperlink ref="D9" r:id="rId6" xr:uid="{7E99A919-0A12-4725-AEEE-0A6D4B0AEBE8}"/>
-    <hyperlink ref="D17" r:id="rId7" xr:uid="{2E4AB602-75C1-45E8-B9E9-1B16196F8BB9}"/>
-    <hyperlink ref="D22" r:id="rId8" xr:uid="{9FDD29CA-7B6F-4D9C-B8AB-2CA22F1BD75D}"/>
+    <hyperlink ref="D23" r:id="rId1" display="https://leetcode.com/problems/two-sum/description/" xr:uid="{D29A1F65-8394-4D89-BD96-17CD60D15AFD}"/>
+    <hyperlink ref="D11" r:id="rId2" xr:uid="{3A7CEF42-3337-4C95-84AC-B7CAF9B28B7F}"/>
+    <hyperlink ref="D7" r:id="rId3" xr:uid="{6B70FD5E-C0D2-445D-BDB3-4DB279AB8A7B}"/>
+    <hyperlink ref="D8" r:id="rId4" xr:uid="{A248292A-243F-409F-94AA-C731025CF02A}"/>
+    <hyperlink ref="D16" r:id="rId5" xr:uid="{68AE57ED-F523-4FD0-8423-21CCC6C328A5}"/>
+    <hyperlink ref="D4" r:id="rId6" xr:uid="{7E99A919-0A12-4725-AEEE-0A6D4B0AEBE8}"/>
+    <hyperlink ref="D18" r:id="rId7" xr:uid="{2E4AB602-75C1-45E8-B9E9-1B16196F8BB9}"/>
+    <hyperlink ref="D14" r:id="rId8" xr:uid="{9FDD29CA-7B6F-4D9C-B8AB-2CA22F1BD75D}"/>
     <hyperlink ref="D12" r:id="rId9" xr:uid="{D47E6F13-2C77-4D9C-A0C2-3A61BB7DB7F7}"/>
-    <hyperlink ref="D20" r:id="rId10" xr:uid="{9C7F51E0-A421-48E3-A675-090808C1F22C}"/>
-    <hyperlink ref="D5" r:id="rId11" xr:uid="{E51C5646-FEE1-44F7-91C4-364A6DFCFF85}"/>
-    <hyperlink ref="D19" r:id="rId12" xr:uid="{EA1E0AA8-8F6F-4265-84F0-6C4AB0FA52AB}"/>
-    <hyperlink ref="D16" r:id="rId13" xr:uid="{1D16F9F4-D9DC-49D7-A64B-F7F293ADC1B4}"/>
-    <hyperlink ref="D6" r:id="rId14" xr:uid="{8550C157-C895-4E10-8151-A29957550A7F}"/>
-    <hyperlink ref="D7" r:id="rId15" xr:uid="{2BC18D0F-9C3B-484A-9BAB-F5F1860DAAB1}"/>
-    <hyperlink ref="D24" r:id="rId16" xr:uid="{3651F195-4484-4B60-9381-160A18299D79}"/>
-    <hyperlink ref="D23" r:id="rId17" xr:uid="{636A9039-9CA1-4DCC-A5DB-79562BBBC056}"/>
-    <hyperlink ref="D10" r:id="rId18" xr:uid="{DC17FDF3-9A9B-4FEA-9D6A-DF4252E08036}"/>
-    <hyperlink ref="D18" r:id="rId19" xr:uid="{6F6969B7-A411-4085-9E8F-58E3BF1FF942}"/>
-    <hyperlink ref="D11" r:id="rId20" xr:uid="{CA194911-BED7-40B0-B5B4-D5638F409E73}"/>
-    <hyperlink ref="D21" r:id="rId21" xr:uid="{3BF7A565-83B5-4AAE-BAC3-B58A69DEAE20}"/>
-    <hyperlink ref="D13" r:id="rId22" xr:uid="{8D63FD65-E0C5-4A54-BDEF-860350E0B7FD}"/>
-    <hyperlink ref="D25" r:id="rId23" xr:uid="{90C58A53-6B5A-4F1A-AF8C-7CD4898E0DE7}"/>
-    <hyperlink ref="D14" r:id="rId24" xr:uid="{E3888C7C-DDBB-4226-8610-B38F3E7E7E6D}"/>
+    <hyperlink ref="D15" r:id="rId10" xr:uid="{9C7F51E0-A421-48E3-A675-090808C1F22C}"/>
+    <hyperlink ref="D17" r:id="rId11" xr:uid="{E51C5646-FEE1-44F7-91C4-364A6DFCFF85}"/>
+    <hyperlink ref="D10" r:id="rId12" xr:uid="{EA1E0AA8-8F6F-4265-84F0-6C4AB0FA52AB}"/>
+    <hyperlink ref="D24" r:id="rId13" xr:uid="{1D16F9F4-D9DC-49D7-A64B-F7F293ADC1B4}"/>
+    <hyperlink ref="D25" r:id="rId14" xr:uid="{8550C157-C895-4E10-8151-A29957550A7F}"/>
+    <hyperlink ref="D13" r:id="rId15" xr:uid="{2BC18D0F-9C3B-484A-9BAB-F5F1860DAAB1}"/>
+    <hyperlink ref="D2" r:id="rId16" xr:uid="{3651F195-4484-4B60-9381-160A18299D79}"/>
+    <hyperlink ref="D19" r:id="rId17" xr:uid="{636A9039-9CA1-4DCC-A5DB-79562BBBC056}"/>
+    <hyperlink ref="D20" r:id="rId18" xr:uid="{DC17FDF3-9A9B-4FEA-9D6A-DF4252E08036}"/>
+    <hyperlink ref="D9" r:id="rId19" xr:uid="{6F6969B7-A411-4085-9E8F-58E3BF1FF942}"/>
+    <hyperlink ref="D5" r:id="rId20" xr:uid="{CA194911-BED7-40B0-B5B4-D5638F409E73}"/>
+    <hyperlink ref="D22" r:id="rId21" xr:uid="{3BF7A565-83B5-4AAE-BAC3-B58A69DEAE20}"/>
+    <hyperlink ref="D3" r:id="rId22" xr:uid="{8D63FD65-E0C5-4A54-BDEF-860350E0B7FD}"/>
+    <hyperlink ref="D21" r:id="rId23" xr:uid="{90C58A53-6B5A-4F1A-AF8C-7CD4898E0DE7}"/>
+    <hyperlink ref="D6" r:id="rId24" xr:uid="{E3888C7C-DDBB-4226-8610-B38F3E7E7E6D}"/>
+    <hyperlink ref="D26" r:id="rId25" xr:uid="{84F8ED1F-E79B-42C7-9196-F87C516A6D64}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId25"/>
+  <pageSetup orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>
--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\OneDrive - ARK\programs\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5767D17-C7A8-480E-8619-F624B39CD4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71221D4B-9BA4-4354-941D-5A35B51ACB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="131">
   <si>
     <t>url</t>
   </si>
@@ -403,6 +403,21 @@
   </si>
   <si>
     <t>Use a defaultdict</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/linked-list-cycle/</t>
+  </si>
+  <si>
+    <t>Two Pointer</t>
+  </si>
+  <si>
+    <t>Classic Two Pointer</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/3sum/</t>
+  </si>
+  <si>
+    <t>Pointers and Binary Search Like</t>
   </si>
 </sst>
 </file>
@@ -832,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="D22" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,194 +899,204 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="17" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
-        <v>1701</v>
-      </c>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="21"/>
+      <c r="I2" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="13" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
+        <v>3</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-    </row>
-    <row r="3" spans="1:10" s="13" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
-        <v>121</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="13" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>11</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>19</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>20</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H3" s="21">
-        <v>45496</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="13" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
-        <v>94</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="C6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="21"/>
+      <c r="I6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>21</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-    </row>
-    <row r="5" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
-        <v>102</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-    </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>142</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H6" s="22">
-        <v>45500</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
-        <v>11</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="J7" s="14" t="s">
+      <c r="C7" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="21"/>
+      <c r="I7" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J7" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>18</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F8" s="14"/>
       <c r="G8" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8" s="20"/>
       <c r="I8" s="14"/>
@@ -1079,89 +1104,85 @@
     </row>
     <row r="9" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
-        <v>226</v>
+        <v>94</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="E9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="21"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>100</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
-        <v>230</v>
-      </c>
-      <c r="B10" s="14" t="s">
+      <c r="F10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="21"/>
+      <c r="I10" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>102</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-    </row>
-    <row r="11" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
-        <v>3</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>99</v>
-      </c>
+      <c r="C11" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="21"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
     </row>
     <row r="12" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
@@ -1195,29 +1216,29 @@
     </row>
     <row r="13" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>44</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="E13" s="11"/>
       <c r="F13" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="H13" s="21"/>
+        <v>87</v>
+      </c>
+      <c r="H13" s="21">
+        <v>45496</v>
+      </c>
       <c r="I13" s="10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J13" s="10" t="s">
         <v>99</v>
@@ -1225,75 +1246,89 @@
     </row>
     <row r="14" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
-        <v>876</v>
+        <v>141</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="21"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+        <v>128</v>
+      </c>
+      <c r="H14" s="21">
+        <v>45500</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="15" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
-        <v>234</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
+      <c r="A15" s="6">
+        <v>142</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" s="22">
+        <v>45500</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="16" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="14"/>
+        <v>16</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="G16" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H16" s="20"/>
       <c r="I16" s="14"/>
@@ -1301,16 +1336,16 @@
     </row>
     <row r="17" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>34</v>
@@ -1319,15 +1354,11 @@
         <v>5</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H17" s="20"/>
-      <c r="I17" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>99</v>
-      </c>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
     </row>
     <row r="18" spans="1:10" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
@@ -1360,253 +1391,258 @@
       </c>
     </row>
     <row r="19" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
-        <v>1190</v>
-      </c>
-      <c r="B19" s="14" t="s">
+      <c r="A19" s="10">
+        <v>226</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="21"/>
+      <c r="I19" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <v>230</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="15" t="s">
+      <c r="C20" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H19" s="20"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-    </row>
-    <row r="20" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
-        <v>100</v>
-      </c>
-      <c r="B20" s="10" t="s">
+      <c r="F20" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>234</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
-        <v>2191</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>22</v>
-      </c>
       <c r="C21" s="11" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="H21" s="21">
-        <v>45497</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="H21" s="21"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
     </row>
     <row r="22" spans="1:10" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
-        <v>572</v>
+        <v>242</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="H22" s="21">
-        <v>45492</v>
+        <v>45500</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="J22" s="10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
-        <v>1</v>
+        <v>572</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="21"/>
+        <v>84</v>
+      </c>
+      <c r="H23" s="21">
+        <v>45492</v>
+      </c>
       <c r="I23" s="10" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="J23" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14">
-        <v>167</v>
-      </c>
-      <c r="B24" s="14" t="s">
+      <c r="A24" s="10">
+        <v>876</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="21"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+    </row>
+    <row r="25" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <v>1190</v>
+      </c>
+      <c r="B25" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="H24" s="20"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-    </row>
-    <row r="25" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
-        <v>20</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="11" t="s">
+      <c r="C25" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H25" s="21"/>
-      <c r="I25" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>99</v>
-      </c>
+      <c r="F25" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
     </row>
     <row r="26" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
-        <v>242</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="H26" s="21">
-        <v>45500</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C27" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="A26" s="14">
+        <v>1701</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+    </row>
+    <row r="27" spans="1:10" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>2191</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H27" s="21">
+        <v>45497</v>
+      </c>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C28" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>100</v>
@@ -1617,7 +1653,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C29" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>100</v>
@@ -1628,7 +1664,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C30" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>100</v>
@@ -1639,7 +1675,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C31" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>100</v>
@@ -1650,7 +1686,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C32" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>100</v>
@@ -1659,20 +1695,20 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C33" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C34" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C34" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>109</v>
@@ -1681,23 +1717,37 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C35" s="3" t="s">
+    <row r="35" spans="1:10" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="14">
+        <v>15</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="15"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="J35" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C36" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>111</v>
@@ -1706,20 +1756,23 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="C37" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C38" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C38" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>116</v>
@@ -1728,21 +1781,28 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C39" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C40" s="3" t="s">
-        <v>119</v>
-      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="19"/>
       <c r="I40" s="1" t="s">
         <v>120</v>
       </c>
@@ -1750,7 +1810,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>93</v>
       </c>
@@ -1765,38 +1825,40 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J25">
-    <sortCondition ref="C2:C25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J41">
+    <sortCondition ref="A2:A41"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D23" r:id="rId1" display="https://leetcode.com/problems/two-sum/description/" xr:uid="{D29A1F65-8394-4D89-BD96-17CD60D15AFD}"/>
-    <hyperlink ref="D11" r:id="rId2" xr:uid="{3A7CEF42-3337-4C95-84AC-B7CAF9B28B7F}"/>
-    <hyperlink ref="D7" r:id="rId3" xr:uid="{6B70FD5E-C0D2-445D-BDB3-4DB279AB8A7B}"/>
-    <hyperlink ref="D8" r:id="rId4" xr:uid="{A248292A-243F-409F-94AA-C731025CF02A}"/>
-    <hyperlink ref="D16" r:id="rId5" xr:uid="{68AE57ED-F523-4FD0-8423-21CCC6C328A5}"/>
-    <hyperlink ref="D4" r:id="rId6" xr:uid="{7E99A919-0A12-4725-AEEE-0A6D4B0AEBE8}"/>
+    <hyperlink ref="D2" r:id="rId1" display="https://leetcode.com/problems/two-sum/description/" xr:uid="{D29A1F65-8394-4D89-BD96-17CD60D15AFD}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{3A7CEF42-3337-4C95-84AC-B7CAF9B28B7F}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{6B70FD5E-C0D2-445D-BDB3-4DB279AB8A7B}"/>
+    <hyperlink ref="D16" r:id="rId4" xr:uid="{A248292A-243F-409F-94AA-C731025CF02A}"/>
+    <hyperlink ref="D8" r:id="rId5" xr:uid="{68AE57ED-F523-4FD0-8423-21CCC6C328A5}"/>
+    <hyperlink ref="D9" r:id="rId6" xr:uid="{7E99A919-0A12-4725-AEEE-0A6D4B0AEBE8}"/>
     <hyperlink ref="D18" r:id="rId7" xr:uid="{2E4AB602-75C1-45E8-B9E9-1B16196F8BB9}"/>
-    <hyperlink ref="D14" r:id="rId8" xr:uid="{9FDD29CA-7B6F-4D9C-B8AB-2CA22F1BD75D}"/>
+    <hyperlink ref="D24" r:id="rId8" xr:uid="{9FDD29CA-7B6F-4D9C-B8AB-2CA22F1BD75D}"/>
     <hyperlink ref="D12" r:id="rId9" xr:uid="{D47E6F13-2C77-4D9C-A0C2-3A61BB7DB7F7}"/>
-    <hyperlink ref="D15" r:id="rId10" xr:uid="{9C7F51E0-A421-48E3-A675-090808C1F22C}"/>
-    <hyperlink ref="D17" r:id="rId11" xr:uid="{E51C5646-FEE1-44F7-91C4-364A6DFCFF85}"/>
-    <hyperlink ref="D10" r:id="rId12" xr:uid="{EA1E0AA8-8F6F-4265-84F0-6C4AB0FA52AB}"/>
-    <hyperlink ref="D24" r:id="rId13" xr:uid="{1D16F9F4-D9DC-49D7-A64B-F7F293ADC1B4}"/>
-    <hyperlink ref="D25" r:id="rId14" xr:uid="{8550C157-C895-4E10-8151-A29957550A7F}"/>
-    <hyperlink ref="D13" r:id="rId15" xr:uid="{2BC18D0F-9C3B-484A-9BAB-F5F1860DAAB1}"/>
-    <hyperlink ref="D2" r:id="rId16" xr:uid="{3651F195-4484-4B60-9381-160A18299D79}"/>
-    <hyperlink ref="D19" r:id="rId17" xr:uid="{636A9039-9CA1-4DCC-A5DB-79562BBBC056}"/>
-    <hyperlink ref="D20" r:id="rId18" xr:uid="{DC17FDF3-9A9B-4FEA-9D6A-DF4252E08036}"/>
-    <hyperlink ref="D9" r:id="rId19" xr:uid="{6F6969B7-A411-4085-9E8F-58E3BF1FF942}"/>
-    <hyperlink ref="D5" r:id="rId20" xr:uid="{CA194911-BED7-40B0-B5B4-D5638F409E73}"/>
-    <hyperlink ref="D22" r:id="rId21" xr:uid="{3BF7A565-83B5-4AAE-BAC3-B58A69DEAE20}"/>
-    <hyperlink ref="D3" r:id="rId22" xr:uid="{8D63FD65-E0C5-4A54-BDEF-860350E0B7FD}"/>
-    <hyperlink ref="D21" r:id="rId23" xr:uid="{90C58A53-6B5A-4F1A-AF8C-7CD4898E0DE7}"/>
-    <hyperlink ref="D6" r:id="rId24" xr:uid="{E3888C7C-DDBB-4226-8610-B38F3E7E7E6D}"/>
-    <hyperlink ref="D26" r:id="rId25" xr:uid="{84F8ED1F-E79B-42C7-9196-F87C516A6D64}"/>
+    <hyperlink ref="D21" r:id="rId10" xr:uid="{9C7F51E0-A421-48E3-A675-090808C1F22C}"/>
+    <hyperlink ref="D5" r:id="rId11" xr:uid="{E51C5646-FEE1-44F7-91C4-364A6DFCFF85}"/>
+    <hyperlink ref="D20" r:id="rId12" xr:uid="{EA1E0AA8-8F6F-4265-84F0-6C4AB0FA52AB}"/>
+    <hyperlink ref="D17" r:id="rId13" xr:uid="{1D16F9F4-D9DC-49D7-A64B-F7F293ADC1B4}"/>
+    <hyperlink ref="D6" r:id="rId14" xr:uid="{8550C157-C895-4E10-8151-A29957550A7F}"/>
+    <hyperlink ref="D7" r:id="rId15" xr:uid="{2BC18D0F-9C3B-484A-9BAB-F5F1860DAAB1}"/>
+    <hyperlink ref="D26" r:id="rId16" xr:uid="{3651F195-4484-4B60-9381-160A18299D79}"/>
+    <hyperlink ref="D25" r:id="rId17" xr:uid="{636A9039-9CA1-4DCC-A5DB-79562BBBC056}"/>
+    <hyperlink ref="D10" r:id="rId18" xr:uid="{DC17FDF3-9A9B-4FEA-9D6A-DF4252E08036}"/>
+    <hyperlink ref="D19" r:id="rId19" xr:uid="{6F6969B7-A411-4085-9E8F-58E3BF1FF942}"/>
+    <hyperlink ref="D11" r:id="rId20" xr:uid="{CA194911-BED7-40B0-B5B4-D5638F409E73}"/>
+    <hyperlink ref="D23" r:id="rId21" xr:uid="{3BF7A565-83B5-4AAE-BAC3-B58A69DEAE20}"/>
+    <hyperlink ref="D13" r:id="rId22" xr:uid="{8D63FD65-E0C5-4A54-BDEF-860350E0B7FD}"/>
+    <hyperlink ref="D27" r:id="rId23" xr:uid="{90C58A53-6B5A-4F1A-AF8C-7CD4898E0DE7}"/>
+    <hyperlink ref="D15" r:id="rId24" xr:uid="{E3888C7C-DDBB-4226-8610-B38F3E7E7E6D}"/>
+    <hyperlink ref="D22" r:id="rId25" xr:uid="{84F8ED1F-E79B-42C7-9196-F87C516A6D64}"/>
+    <hyperlink ref="D14" r:id="rId26" xr:uid="{F769BE77-B97E-4C25-811E-BFB3347ABB05}"/>
+    <hyperlink ref="D35" r:id="rId27" xr:uid="{930ADD2A-EEA0-47F9-82BA-A4ECB6B25E50}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId26"/>
+  <pageSetup orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>
--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agneshk\pc\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF68DD9-A4BF-4723-A874-7ABC85A538E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD473CE-EA14-4985-A074-C4BC917AD1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1605" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
   <si>
     <t>url</t>
   </si>
@@ -189,13 +189,19 @@
     <t>https://rebrand.ly/e3bo9ay</t>
   </si>
   <si>
-    <t>O(log(n))</t>
-  </si>
-  <si>
-    <t>Use Binary Search Algorithm along with two pointer technique.</t>
-  </si>
-  <si>
     <t>Two Sum II - Input Array Is Sorted</t>
+  </si>
+  <si>
+    <t>3sum</t>
+  </si>
+  <si>
+    <t>https://rebrand.ly/hvgofaq</t>
+  </si>
+  <si>
+    <t>Sort the array and use binary search like algorithm with two pointers</t>
+  </si>
+  <si>
+    <t>Use binary search like algorithm with two pointer technique.</t>
   </si>
 </sst>
 </file>
@@ -581,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -592,7 +598,7 @@
     <col min="1" max="1" width="8.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.77734375" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="3" customWidth="1"/>
     <col min="6" max="6" width="10.109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="84.5546875" style="3" customWidth="1"/>
@@ -812,7 +818,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>53</v>
@@ -821,10 +827,10 @@
         <v>35</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -917,6 +923,29 @@
       </c>
       <c r="G14" s="6" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>15</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -937,8 +966,9 @@
     <hyperlink ref="D5" r:id="rId11" xr:uid="{E51C5646-FEE1-44F7-91C4-364A6DFCFF85}"/>
     <hyperlink ref="D12" r:id="rId12" xr:uid="{EA1E0AA8-8F6F-4265-84F0-6C4AB0FA52AB}"/>
     <hyperlink ref="D10" r:id="rId13" xr:uid="{1D16F9F4-D9DC-49D7-A64B-F7F293ADC1B4}"/>
+    <hyperlink ref="D15" r:id="rId14" xr:uid="{D7A5DBEB-5A7C-4F40-9CC8-94EBF5CA0D24}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agneshk\pc\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD473CE-EA14-4985-A074-C4BC917AD1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF68DD9-A4BF-4723-A874-7ABC85A538E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1605" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
   <si>
     <t>url</t>
   </si>
@@ -189,19 +189,13 @@
     <t>https://rebrand.ly/e3bo9ay</t>
   </si>
   <si>
+    <t>O(log(n))</t>
+  </si>
+  <si>
+    <t>Use Binary Search Algorithm along with two pointer technique.</t>
+  </si>
+  <si>
     <t>Two Sum II - Input Array Is Sorted</t>
-  </si>
-  <si>
-    <t>3sum</t>
-  </si>
-  <si>
-    <t>https://rebrand.ly/hvgofaq</t>
-  </si>
-  <si>
-    <t>Sort the array and use binary search like algorithm with two pointers</t>
-  </si>
-  <si>
-    <t>Use binary search like algorithm with two pointer technique.</t>
   </si>
 </sst>
 </file>
@@ -587,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,7 +592,7 @@
     <col min="1" max="1" width="8.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="32.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="3" customWidth="1"/>
     <col min="6" max="6" width="10.109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="84.5546875" style="3" customWidth="1"/>
@@ -818,7 +812,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>53</v>
@@ -827,10 +821,10 @@
         <v>35</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -923,29 +917,6 @@
       </c>
       <c r="G14" s="6" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <v>15</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -966,9 +937,8 @@
     <hyperlink ref="D5" r:id="rId11" xr:uid="{E51C5646-FEE1-44F7-91C4-364A6DFCFF85}"/>
     <hyperlink ref="D12" r:id="rId12" xr:uid="{EA1E0AA8-8F6F-4265-84F0-6C4AB0FA52AB}"/>
     <hyperlink ref="D10" r:id="rId13" xr:uid="{1D16F9F4-D9DC-49D7-A64B-F7F293ADC1B4}"/>
-    <hyperlink ref="D15" r:id="rId14" xr:uid="{D7A5DBEB-5A7C-4F40-9CC8-94EBF5CA0D24}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\OneDrive - ARK\programs\code\leetcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agneshk\pc\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71221D4B-9BA4-4354-941D-5A35B51ACB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FF2080-9873-4793-88EA-A380B5E9E374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="135">
   <si>
     <t>url</t>
   </si>
@@ -418,6 +418,18 @@
   </si>
   <si>
     <t>Pointers and Binary Search Like</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/contains-duplicate/description/</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>Use a set not a map!</t>
+  </si>
+  <si>
+    <t>myrating</t>
   </si>
 </sst>
 </file>
@@ -845,28 +857,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="101.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="19" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="1"/>
-    <col min="11" max="16384" width="8.85546875" style="5"/>
+    <col min="1" max="1" width="8.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="101.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="19" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="1"/>
+    <col min="11" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -897,8 +909,11 @@
       <c r="J1" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="17" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="17" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -928,7 +943,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="13" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="13" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
         <v>3</v>
       </c>
@@ -958,7 +973,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="13" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="13" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>11</v>
       </c>
@@ -988,7 +1003,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>19</v>
       </c>
@@ -1018,7 +1033,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>20</v>
       </c>
@@ -1048,7 +1063,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>21</v>
       </c>
@@ -1078,7 +1093,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>46</v>
       </c>
@@ -1102,7 +1117,7 @@
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
     </row>
-    <row r="9" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>94</v>
       </c>
@@ -1128,7 +1143,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>100</v>
       </c>
@@ -1158,7 +1173,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>102</v>
       </c>
@@ -1184,7 +1199,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>104</v>
       </c>
@@ -1214,7 +1229,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>121</v>
       </c>
@@ -1244,7 +1259,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>141</v>
       </c>
@@ -1276,7 +1291,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>142</v>
       </c>
@@ -1308,7 +1323,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>147</v>
       </c>
@@ -1334,7 +1349,7 @@
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
     </row>
-    <row r="17" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>167</v>
       </c>
@@ -1360,7 +1375,7 @@
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
     </row>
-    <row r="18" spans="1:10" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>206</v>
       </c>
@@ -1390,7 +1405,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>226</v>
       </c>
@@ -1420,7 +1435,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <v>230</v>
       </c>
@@ -1446,7 +1461,7 @@
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
     </row>
-    <row r="21" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>234</v>
       </c>
@@ -1472,7 +1487,7 @@
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
     </row>
-    <row r="22" spans="1:10" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>242</v>
       </c>
@@ -1504,7 +1519,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>572</v>
       </c>
@@ -1536,7 +1551,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>876</v>
       </c>
@@ -1562,7 +1577,7 @@
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
     </row>
-    <row r="25" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <v>1190</v>
       </c>
@@ -1588,7 +1603,7 @@
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
     </row>
-    <row r="26" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <v>1701</v>
       </c>
@@ -1612,7 +1627,7 @@
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
     </row>
-    <row r="27" spans="1:10" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>2191</v>
       </c>
@@ -1640,18 +1655,42 @@
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C28" s="3" t="s">
+    <row r="28" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10">
+        <v>271</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="D28" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="H28" s="21">
+        <v>45503</v>
+      </c>
+      <c r="I28" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J28" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C29" s="3" t="s">
         <v>103</v>
       </c>
@@ -1662,7 +1701,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C30" s="3" t="s">
         <v>104</v>
       </c>
@@ -1673,7 +1712,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C31" s="3" t="s">
         <v>105</v>
       </c>
@@ -1684,7 +1723,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C32" s="3" t="s">
         <v>106</v>
       </c>
@@ -1695,7 +1734,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C33" s="3" t="s">
         <v>107</v>
       </c>
@@ -1706,7 +1745,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C34" s="3" t="s">
         <v>108</v>
       </c>
@@ -1717,7 +1756,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" s="18" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="14">
         <v>15</v>
       </c>
@@ -1745,7 +1784,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C36" s="3" t="s">
         <v>112</v>
       </c>
@@ -1756,7 +1795,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>93</v>
       </c>
@@ -1770,7 +1809,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C38" s="3" t="s">
         <v>114</v>
       </c>
@@ -1781,7 +1820,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C39" s="3" t="s">
         <v>115</v>
       </c>
@@ -1792,7 +1831,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="3" t="s">
@@ -1810,7 +1849,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
         <v>93</v>
       </c>
@@ -1857,8 +1896,9 @@
     <hyperlink ref="D22" r:id="rId25" xr:uid="{84F8ED1F-E79B-42C7-9196-F87C516A6D64}"/>
     <hyperlink ref="D14" r:id="rId26" xr:uid="{F769BE77-B97E-4C25-811E-BFB3347ABB05}"/>
     <hyperlink ref="D35" r:id="rId27" xr:uid="{930ADD2A-EEA0-47F9-82BA-A4ECB6B25E50}"/>
+    <hyperlink ref="D28" r:id="rId28" xr:uid="{B844A605-41FB-4385-B130-985FBD14C189}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId28"/>
+  <pageSetup orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agneshk\pc\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FF2080-9873-4793-88EA-A380B5E9E374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831C722F-3784-4F43-A11E-253DA6A611AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="137">
   <si>
     <t>url</t>
   </si>
@@ -430,6 +430,12 @@
   </si>
   <si>
     <t>myrating</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/product-of-array-except-self/description/</t>
+  </si>
+  <si>
+    <t>Initialise the res array, left pass on it using premul variable and then overwrite over it with right pass using postmul.</t>
   </si>
 </sst>
 </file>
@@ -859,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1723,15 +1729,37 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C32" s="3" t="s">
+    <row r="32" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="10">
+        <v>238</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="D32" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H32" s="21">
+        <v>45503</v>
+      </c>
+      <c r="I32" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>99</v>
+      <c r="J32" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -1897,8 +1925,9 @@
     <hyperlink ref="D14" r:id="rId26" xr:uid="{F769BE77-B97E-4C25-811E-BFB3347ABB05}"/>
     <hyperlink ref="D35" r:id="rId27" xr:uid="{930ADD2A-EEA0-47F9-82BA-A4ECB6B25E50}"/>
     <hyperlink ref="D28" r:id="rId28" xr:uid="{B844A605-41FB-4385-B130-985FBD14C189}"/>
+    <hyperlink ref="D32" r:id="rId29" xr:uid="{75FAD807-8F2F-4605-AA42-7430E89F39B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId29"/>
+  <pageSetup orientation="portrait" r:id="rId30"/>
 </worksheet>
 </file>
--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agneshk\pc\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831C722F-3784-4F43-A11E-253DA6A611AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6AAAE0-52A2-4EDC-A870-061124F9A11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="138">
   <si>
     <t>url</t>
   </si>
@@ -436,6 +436,9 @@
   </si>
   <si>
     <t>Initialise the res array, left pass on it using premul variable and then overwrite over it with right pass using postmul.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -468,7 +471,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -490,6 +493,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,7 +531,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -566,9 +575,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -580,6 +586,22 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -863,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -875,10 +897,10 @@
     <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="50.44140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="24.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="27" style="3" customWidth="1"/>
     <col min="6" max="6" width="10.109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="101.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" style="19" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="18" customWidth="1"/>
     <col min="9" max="9" width="15.88671875" style="1" customWidth="1"/>
     <col min="10" max="10" width="8.88671875" style="1"/>
     <col min="11" max="16384" width="8.88671875" style="5"/>
@@ -906,7 +928,7 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>79</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -919,7 +941,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="17" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="24" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -941,7 +963,7 @@
       <c r="G2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="20"/>
       <c r="I2" s="10" t="s">
         <v>100</v>
       </c>
@@ -950,821 +972,858 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="13" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14">
-        <v>3</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="15" t="s">
+      <c r="A3" s="10">
         <v>20</v>
       </c>
+      <c r="B3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="H3" s="20"/>
-      <c r="I3" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="J3" s="14" t="s">
+      <c r="I3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="13" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14">
-        <v>11</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="15" t="s">
+      <c r="A4" s="10">
         <v>21</v>
       </c>
+      <c r="B4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="H4" s="20"/>
-      <c r="I4" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="J4" s="14" t="s">
+      <c r="I4" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
-        <v>19</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>48</v>
+      <c r="A5" s="10">
+        <v>94</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="H5" s="20"/>
-      <c r="I5" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="21"/>
+        <v>70</v>
+      </c>
+      <c r="H6" s="20"/>
       <c r="I6" s="10" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" s="21"/>
+        <v>41</v>
+      </c>
+      <c r="H7" s="20"/>
       <c r="I7" s="10" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="J7" s="10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14">
-        <v>46</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
+    <row r="8" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>121</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="20">
+        <v>45496</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="9" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="H9" s="20">
+        <v>45500</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
-        <v>100</v>
+        <v>206</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="E10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>226</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
-        <v>102</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="F11" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+        <v>74</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="12" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
-        <v>104</v>
+        <v>234</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="21"/>
-      <c r="I12" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>99</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="H12" s="20"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
     </row>
     <row r="13" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
-        <v>121</v>
+        <v>242</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" s="11"/>
+        <v>123</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>124</v>
+      </c>
       <c r="F13" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H13" s="21">
-        <v>45496</v>
+        <v>125</v>
+      </c>
+      <c r="H13" s="20">
+        <v>45500</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="J13" s="10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="13" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
-        <v>141</v>
+        <v>572</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="H14" s="21">
+        <v>84</v>
+      </c>
+      <c r="H14" s="20">
+        <v>45492</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
+        <v>876</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="20"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
+        <v>271</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="H16" s="20">
+        <v>45503</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>142</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="21">
         <v>45500</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I17" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="23" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="J18" s="25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="J14" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
-        <v>142</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H15" s="22">
-        <v>45500</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14">
-        <v>147</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-    </row>
-    <row r="17" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14">
-        <v>167</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-    </row>
-    <row r="18" spans="1:11" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
-        <v>206</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="21"/>
-      <c r="I18" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
-        <v>226</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="H19" s="21"/>
-      <c r="I19" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J19" s="25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
-        <v>230</v>
+        <v>3</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>5</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H20" s="20"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-    </row>
-    <row r="21" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
-        <v>234</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-    </row>
-    <row r="22" spans="1:11" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
-        <v>242</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="H22" s="21">
-        <v>45500</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
-        <v>572</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="H23" s="21">
-        <v>45492</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10">
-        <v>876</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="19"/>
+      <c r="I20" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14">
+        <v>11</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="19"/>
+      <c r="I21" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="14">
+        <v>19</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-    </row>
-    <row r="25" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" s="19"/>
+      <c r="I22" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14">
+        <v>46</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="19"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+    </row>
+    <row r="24" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14">
+        <v>102</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" s="19"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+    </row>
+    <row r="25" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
-        <v>1190</v>
+        <v>147</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F25" s="14" t="s">
         <v>18</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" s="20"/>
+        <v>27</v>
+      </c>
+      <c r="H25" s="19"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
     </row>
-    <row r="26" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
-        <v>1701</v>
+        <v>167</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" s="15"/>
+        <v>52</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>34</v>
+      </c>
       <c r="F26" s="14" t="s">
         <v>5</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="H26" s="20"/>
+        <v>53</v>
+      </c>
+      <c r="H26" s="19"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
     </row>
-    <row r="27" spans="1:11" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="10">
+    <row r="27" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="14">
+        <v>230</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+    </row>
+    <row r="28" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="14">
+        <v>1190</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" s="19"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+    </row>
+    <row r="29" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="14">
+        <v>1701</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="15"/>
+      <c r="F29" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" s="19"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+    </row>
+    <row r="30" spans="1:11" s="17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="14">
         <v>2191</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B30" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C30" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D30" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E30" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F30" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G30" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H30" s="19">
         <v>45497</v>
       </c>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-    </row>
-    <row r="28" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10">
-        <v>271</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="H28" s="21">
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+    </row>
+    <row r="31" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="14">
+        <v>238</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="H31" s="19">
         <v>45503</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="I31" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="J28" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="K28" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C29" s="3" t="s">
+      <c r="J31" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="K31" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="17" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="14">
+        <v>15</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="15"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C33" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C30" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C31" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10">
-        <v>238</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="H32" s="21">
-        <v>45503</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="K32" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C33" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>100</v>
@@ -1773,84 +1832,74 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C34" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K35" s="5"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C36" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C37" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I37" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J34" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="18" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="14">
-        <v>15</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" s="15"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="J35" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C36" s="3" t="s">
+      <c r="J37" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C38" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I38" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="J36" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B37" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C38" s="3" t="s">
+      <c r="J38" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C39" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C39" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>116</v>
@@ -1859,30 +1908,30 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="3"/>
       <c r="F40" s="1"/>
       <c r="G40" s="3"/>
-      <c r="H40" s="19"/>
+      <c r="H40" s="18"/>
       <c r="I40" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B41" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="K40" s="5"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C41" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>120</v>
@@ -1890,42 +1939,43 @@
       <c r="J41" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="K41" s="23"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J41">
-    <sortCondition ref="A2:A41"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K41">
+    <sortCondition ref="B1:B41"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="https://leetcode.com/problems/two-sum/description/" xr:uid="{D29A1F65-8394-4D89-BD96-17CD60D15AFD}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{3A7CEF42-3337-4C95-84AC-B7CAF9B28B7F}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{6B70FD5E-C0D2-445D-BDB3-4DB279AB8A7B}"/>
-    <hyperlink ref="D16" r:id="rId4" xr:uid="{A248292A-243F-409F-94AA-C731025CF02A}"/>
-    <hyperlink ref="D8" r:id="rId5" xr:uid="{68AE57ED-F523-4FD0-8423-21CCC6C328A5}"/>
-    <hyperlink ref="D9" r:id="rId6" xr:uid="{7E99A919-0A12-4725-AEEE-0A6D4B0AEBE8}"/>
-    <hyperlink ref="D18" r:id="rId7" xr:uid="{2E4AB602-75C1-45E8-B9E9-1B16196F8BB9}"/>
-    <hyperlink ref="D24" r:id="rId8" xr:uid="{9FDD29CA-7B6F-4D9C-B8AB-2CA22F1BD75D}"/>
-    <hyperlink ref="D12" r:id="rId9" xr:uid="{D47E6F13-2C77-4D9C-A0C2-3A61BB7DB7F7}"/>
-    <hyperlink ref="D21" r:id="rId10" xr:uid="{9C7F51E0-A421-48E3-A675-090808C1F22C}"/>
-    <hyperlink ref="D5" r:id="rId11" xr:uid="{E51C5646-FEE1-44F7-91C4-364A6DFCFF85}"/>
-    <hyperlink ref="D20" r:id="rId12" xr:uid="{EA1E0AA8-8F6F-4265-84F0-6C4AB0FA52AB}"/>
-    <hyperlink ref="D17" r:id="rId13" xr:uid="{1D16F9F4-D9DC-49D7-A64B-F7F293ADC1B4}"/>
-    <hyperlink ref="D6" r:id="rId14" xr:uid="{8550C157-C895-4E10-8151-A29957550A7F}"/>
-    <hyperlink ref="D7" r:id="rId15" xr:uid="{2BC18D0F-9C3B-484A-9BAB-F5F1860DAAB1}"/>
-    <hyperlink ref="D26" r:id="rId16" xr:uid="{3651F195-4484-4B60-9381-160A18299D79}"/>
-    <hyperlink ref="D25" r:id="rId17" xr:uid="{636A9039-9CA1-4DCC-A5DB-79562BBBC056}"/>
-    <hyperlink ref="D10" r:id="rId18" xr:uid="{DC17FDF3-9A9B-4FEA-9D6A-DF4252E08036}"/>
-    <hyperlink ref="D19" r:id="rId19" xr:uid="{6F6969B7-A411-4085-9E8F-58E3BF1FF942}"/>
-    <hyperlink ref="D11" r:id="rId20" xr:uid="{CA194911-BED7-40B0-B5B4-D5638F409E73}"/>
-    <hyperlink ref="D23" r:id="rId21" xr:uid="{3BF7A565-83B5-4AAE-BAC3-B58A69DEAE20}"/>
-    <hyperlink ref="D13" r:id="rId22" xr:uid="{8D63FD65-E0C5-4A54-BDEF-860350E0B7FD}"/>
-    <hyperlink ref="D27" r:id="rId23" xr:uid="{90C58A53-6B5A-4F1A-AF8C-7CD4898E0DE7}"/>
-    <hyperlink ref="D15" r:id="rId24" xr:uid="{E3888C7C-DDBB-4226-8610-B38F3E7E7E6D}"/>
-    <hyperlink ref="D22" r:id="rId25" xr:uid="{84F8ED1F-E79B-42C7-9196-F87C516A6D64}"/>
-    <hyperlink ref="D14" r:id="rId26" xr:uid="{F769BE77-B97E-4C25-811E-BFB3347ABB05}"/>
-    <hyperlink ref="D35" r:id="rId27" xr:uid="{930ADD2A-EEA0-47F9-82BA-A4ECB6B25E50}"/>
-    <hyperlink ref="D28" r:id="rId28" xr:uid="{B844A605-41FB-4385-B130-985FBD14C189}"/>
-    <hyperlink ref="D32" r:id="rId29" xr:uid="{75FAD807-8F2F-4605-AA42-7430E89F39B4}"/>
+    <hyperlink ref="D20" r:id="rId2" xr:uid="{3A7CEF42-3337-4C95-84AC-B7CAF9B28B7F}"/>
+    <hyperlink ref="D21" r:id="rId3" xr:uid="{6B70FD5E-C0D2-445D-BDB3-4DB279AB8A7B}"/>
+    <hyperlink ref="D25" r:id="rId4" xr:uid="{A248292A-243F-409F-94AA-C731025CF02A}"/>
+    <hyperlink ref="D23" r:id="rId5" xr:uid="{68AE57ED-F523-4FD0-8423-21CCC6C328A5}"/>
+    <hyperlink ref="D5" r:id="rId6" xr:uid="{7E99A919-0A12-4725-AEEE-0A6D4B0AEBE8}"/>
+    <hyperlink ref="D10" r:id="rId7" xr:uid="{2E4AB602-75C1-45E8-B9E9-1B16196F8BB9}"/>
+    <hyperlink ref="D15" r:id="rId8" xr:uid="{9FDD29CA-7B6F-4D9C-B8AB-2CA22F1BD75D}"/>
+    <hyperlink ref="D7" r:id="rId9" xr:uid="{D47E6F13-2C77-4D9C-A0C2-3A61BB7DB7F7}"/>
+    <hyperlink ref="D12" r:id="rId10" xr:uid="{9C7F51E0-A421-48E3-A675-090808C1F22C}"/>
+    <hyperlink ref="D22" r:id="rId11" xr:uid="{E51C5646-FEE1-44F7-91C4-364A6DFCFF85}"/>
+    <hyperlink ref="D27" r:id="rId12" xr:uid="{EA1E0AA8-8F6F-4265-84F0-6C4AB0FA52AB}"/>
+    <hyperlink ref="D26" r:id="rId13" xr:uid="{1D16F9F4-D9DC-49D7-A64B-F7F293ADC1B4}"/>
+    <hyperlink ref="D3" r:id="rId14" xr:uid="{8550C157-C895-4E10-8151-A29957550A7F}"/>
+    <hyperlink ref="D4" r:id="rId15" xr:uid="{2BC18D0F-9C3B-484A-9BAB-F5F1860DAAB1}"/>
+    <hyperlink ref="D29" r:id="rId16" xr:uid="{3651F195-4484-4B60-9381-160A18299D79}"/>
+    <hyperlink ref="D28" r:id="rId17" xr:uid="{636A9039-9CA1-4DCC-A5DB-79562BBBC056}"/>
+    <hyperlink ref="D6" r:id="rId18" xr:uid="{DC17FDF3-9A9B-4FEA-9D6A-DF4252E08036}"/>
+    <hyperlink ref="D11" r:id="rId19" xr:uid="{6F6969B7-A411-4085-9E8F-58E3BF1FF942}"/>
+    <hyperlink ref="D24" r:id="rId20" xr:uid="{CA194911-BED7-40B0-B5B4-D5638F409E73}"/>
+    <hyperlink ref="D14" r:id="rId21" xr:uid="{3BF7A565-83B5-4AAE-BAC3-B58A69DEAE20}"/>
+    <hyperlink ref="D8" r:id="rId22" xr:uid="{8D63FD65-E0C5-4A54-BDEF-860350E0B7FD}"/>
+    <hyperlink ref="D30" r:id="rId23" xr:uid="{90C58A53-6B5A-4F1A-AF8C-7CD4898E0DE7}"/>
+    <hyperlink ref="D17" r:id="rId24" xr:uid="{E3888C7C-DDBB-4226-8610-B38F3E7E7E6D}"/>
+    <hyperlink ref="D13" r:id="rId25" xr:uid="{84F8ED1F-E79B-42C7-9196-F87C516A6D64}"/>
+    <hyperlink ref="D9" r:id="rId26" xr:uid="{F769BE77-B97E-4C25-811E-BFB3347ABB05}"/>
+    <hyperlink ref="D32" r:id="rId27" xr:uid="{930ADD2A-EEA0-47F9-82BA-A4ECB6B25E50}"/>
+    <hyperlink ref="D16" r:id="rId28" xr:uid="{B844A605-41FB-4385-B130-985FBD14C189}"/>
+    <hyperlink ref="D31" r:id="rId29" xr:uid="{75FAD807-8F2F-4605-AA42-7430E89F39B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId30"/>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agneshk\pc\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6AAAE0-52A2-4EDC-A870-061124F9A11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C83105F-0C4A-4DAB-931D-4E56CED5FC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1605" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="142">
   <si>
     <t>url</t>
   </si>
@@ -439,6 +439,18 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Zigzag Conversion</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/zigzag-conversion/description/</t>
+  </si>
+  <si>
+    <t>It is non-intuitive</t>
+  </si>
+  <si>
+    <t>String</t>
   </si>
 </sst>
 </file>
@@ -471,7 +483,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -493,12 +505,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,7 +537,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -588,10 +594,6 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -604,6 +606,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -885,10 +888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -900,7 +903,7 @@
     <col min="5" max="5" width="27" style="3" customWidth="1"/>
     <col min="6" max="6" width="10.109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="101.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" style="18" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" style="18" customWidth="1"/>
     <col min="9" max="9" width="15.88671875" style="1" customWidth="1"/>
     <col min="10" max="10" width="8.88671875" style="1"/>
     <col min="11" max="16384" width="8.88671875" style="5"/>
@@ -941,7 +944,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="24" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="22" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1422,43 +1425,31 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="23" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25" t="s">
+    <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="25" t="s">
+      <c r="I18" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="J18" s="25" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25" t="s">
+      <c r="J18" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="25" t="s">
+      <c r="I19" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="J19" s="25" t="s">
+      <c r="J19" s="1" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1822,32 +1813,64 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C33" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I33" s="1" t="s">
+      <c r="A33" s="23"/>
+      <c r="B33" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="23"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="J33" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="J33" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="K33" s="26"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C34" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>99</v>
+      <c r="A34" s="14">
+        <v>6</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="H34" s="19">
+        <v>45505</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="J34" s="14"/>
+      <c r="K34" s="17" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="3"/>
@@ -1861,58 +1884,82 @@
         <v>99</v>
       </c>
       <c r="K35" s="5"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C36" s="22" t="s">
-        <v>107</v>
-      </c>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+    </row>
+    <row r="36" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="18"/>
       <c r="I36" s="1" t="s">
         <v>100</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="K36" s="5"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C37" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="D38" s="1"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J37" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C38" s="22" t="s">
+      <c r="J38" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K38" s="5"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="23"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="D39" s="23"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="J38" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C39" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="J39" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="K39" s="26"/>
     </row>
     <row r="40" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="3"/>
@@ -1926,24 +1973,42 @@
         <v>99</v>
       </c>
       <c r="K40" s="5"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C41" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="D42" s="1"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="J41" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K41" s="23"/>
+      <c r="J42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K42" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K41">
-    <sortCondition ref="B1:B41"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K42">
+    <sortCondition ref="B2:B42"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -1976,8 +2041,9 @@
     <hyperlink ref="D32" r:id="rId27" xr:uid="{930ADD2A-EEA0-47F9-82BA-A4ECB6B25E50}"/>
     <hyperlink ref="D16" r:id="rId28" xr:uid="{B844A605-41FB-4385-B130-985FBD14C189}"/>
     <hyperlink ref="D31" r:id="rId29" xr:uid="{75FAD807-8F2F-4605-AA42-7430E89F39B4}"/>
+    <hyperlink ref="D34" r:id="rId30" xr:uid="{DDD204B7-56F6-46D6-B0CA-16C89391A38C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId30"/>
+  <pageSetup orientation="portrait" r:id="rId31"/>
 </worksheet>
 </file>
--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agneshk\pc\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C83105F-0C4A-4DAB-931D-4E56CED5FC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725F2905-F261-4D5B-98F5-1AB0A649AC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1605" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="144">
   <si>
     <t>url</t>
   </si>
@@ -451,6 +451,12 @@
   </si>
   <si>
     <t>String</t>
+  </si>
+  <si>
+    <t>Check if the number forms a starting point for a continous sequence and then count the longest length.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-consecutive-sequence/description/</t>
   </si>
 </sst>
 </file>
@@ -888,25 +894,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.44140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="101.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" style="18" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="1"/>
-    <col min="11" max="16384" width="8.88671875" style="5"/>
+    <col min="3" max="3" width="50.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="101.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" style="18" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="8.88671875" style="5"/>
+    <col min="10" max="10" width="29.21875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="73.6640625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -920,28 +927,28 @@
         <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="22" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -954,24 +961,24 @@
       <c r="C2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="G2" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>1</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="13" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -984,24 +991,24 @@
       <c r="C3" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="12" t="s">
         <v>56</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="13" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1014,24 +1021,24 @@
       <c r="C4" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="20"/>
+      <c r="G4" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1044,21 +1051,21 @@
       <c r="C5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="J5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
     </row>
     <row r="6" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
@@ -1070,24 +1077,24 @@
       <c r="C6" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="12" t="s">
         <v>68</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -1100,24 +1107,24 @@
       <c r="C7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="20"/>
+      <c r="G7" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -1130,24 +1137,24 @@
       <c r="C8" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="20">
+        <v>45496</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="12" t="s">
         <v>86</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H8" s="20">
-        <v>45496</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -1160,26 +1167,26 @@
       <c r="C9" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" s="20">
+        <v>45500</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="K9" s="12" t="s">
         <v>126</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="H9" s="20">
-        <v>45500</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -1192,24 +1199,24 @@
       <c r="C10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -1222,24 +1229,24 @@
       <c r="C11" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="12" t="s">
         <v>73</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -1252,21 +1259,21 @@
       <c r="C12" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="J12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
     </row>
     <row r="13" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
@@ -1278,26 +1285,26 @@
       <c r="C13" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="20">
+        <v>45500</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" s="12" t="s">
         <v>123</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="H13" s="20">
-        <v>45500</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="13" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1310,26 +1317,26 @@
       <c r="C14" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="20">
+        <v>45492</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="K14" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" s="20">
-        <v>45492</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -1342,21 +1349,21 @@
       <c r="C15" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="J15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
@@ -1368,29 +1375,29 @@
       <c r="C16" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F16" s="20">
+        <v>45503</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="K16" s="12" t="s">
         <v>131</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="H16" s="20">
-        <v>45503</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1403,26 +1410,26 @@
       <c r="C17" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="21">
+        <v>45500</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K17" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H17" s="21">
-        <v>45500</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1432,10 +1439,10 @@
       <c r="C18" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1446,10 +1453,10 @@
       <c r="C19" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1463,24 +1470,24 @@
       <c r="C20" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="19"/>
+      <c r="G20" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="16" t="s">
         <v>7</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -1493,24 +1500,24 @@
       <c r="C21" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="19"/>
+      <c r="G21" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1523,24 +1530,24 @@
       <c r="C22" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="19"/>
+      <c r="G22" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K22" s="16" t="s">
         <v>47</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="J22" s="14" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -1553,19 +1560,19 @@
       <c r="C23" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="14"/>
+      <c r="E23" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="19"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="J23" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
     </row>
     <row r="24" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
@@ -1577,21 +1584,21 @@
       <c r="C24" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="19"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="J24" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="K24" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
     </row>
     <row r="25" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
@@ -1603,21 +1610,21 @@
       <c r="C25" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="19"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="J25" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
     </row>
     <row r="26" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
@@ -1629,21 +1636,21 @@
       <c r="C26" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="19"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="J26" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K26" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
     </row>
     <row r="27" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
@@ -1655,21 +1662,21 @@
       <c r="C27" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="19"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="J27" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
     </row>
     <row r="28" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
@@ -1681,21 +1688,21 @@
       <c r="C28" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="19"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="J28" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K28" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
     </row>
     <row r="29" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
@@ -1707,19 +1714,19 @@
       <c r="C29" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="19"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
     </row>
     <row r="30" spans="1:11" s="17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
@@ -1731,23 +1738,23 @@
       <c r="C30" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" s="19">
+        <v>45497</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="J30" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="K30" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="E30" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="H30" s="19">
-        <v>45497</v>
-      </c>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
     </row>
     <row r="31" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
@@ -1759,29 +1766,29 @@
       <c r="C31" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" s="19">
+        <v>45503</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="K31" s="16" t="s">
         <v>135</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="H31" s="19">
-        <v>45503</v>
-      </c>
-      <c r="I31" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="J31" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="K31" s="17" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="17" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1794,46 +1801,60 @@
       <c r="C32" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="15"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="K32" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="E32" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="15"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="J32" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23" t="s">
+    </row>
+    <row r="33" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="14">
+        <v>128</v>
+      </c>
+      <c r="B33" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="23"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="23" t="s">
+      <c r="D33" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="F33" s="19">
+        <v>45505</v>
+      </c>
+      <c r="G33" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="J33" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="K33" s="26"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H33" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I33" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="K33" s="16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14">
         <v>6</v>
       </c>
@@ -1843,100 +1864,102 @@
       <c r="C34" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F34" s="19">
+        <v>45505</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H34" s="14"/>
+      <c r="I34" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="K34" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="E34" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G34" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="H34" s="19">
-        <v>45505</v>
-      </c>
-      <c r="I34" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="J34" s="14"/>
-      <c r="K34" s="17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="3" t="s">
+    </row>
+    <row r="35" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="1" t="s">
+      <c r="D35" s="23"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="J35" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-    </row>
-    <row r="36" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="3" t="s">
+      <c r="H35" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="J35" s="24"/>
+      <c r="K35" s="23"/>
+    </row>
+    <row r="36" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="1" t="s">
+      <c r="D36" s="23"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="J36" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K36" s="5"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C37" s="3" t="s">
+      <c r="H36" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="J36" s="24"/>
+      <c r="K36" s="23"/>
+    </row>
+    <row r="37" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="D37" s="23"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="J37" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="3" t="s">
+      <c r="H37" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="J37" s="24"/>
+      <c r="K37" s="23"/>
+    </row>
+    <row r="38" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="1" t="s">
+      <c r="D38" s="23"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="J38" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K38" s="5"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H38" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="J38" s="24"/>
+      <c r="K38" s="23"/>
+    </row>
+    <row r="39" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="23"/>
       <c r="B39" s="23"/>
       <c r="C39" s="24" t="s">
@@ -1944,106 +1967,121 @@
       </c>
       <c r="D39" s="23"/>
       <c r="E39" s="24"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="23" t="s">
+      <c r="F39" s="25"/>
+      <c r="G39" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="J39" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="K39" s="26"/>
-    </row>
-    <row r="40" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="3" t="s">
+      <c r="H39" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="J39" s="24"/>
+      <c r="K39" s="23"/>
+    </row>
+    <row r="40" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="1" t="s">
+      <c r="D40" s="23"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="J40" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C41" s="3" t="s">
+      <c r="H40" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="J40" s="24"/>
+      <c r="K40" s="23"/>
+    </row>
+    <row r="41" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="D41" s="23"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="J41" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="3" t="s">
+      <c r="H41" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="J41" s="24"/>
+      <c r="K41" s="23"/>
+    </row>
+    <row r="42" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="23"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="1" t="s">
+      <c r="D42" s="23"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="J42" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K42" s="5"/>
+      <c r="H42" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="J42" s="24"/>
+      <c r="K42" s="23"/>
+    </row>
+    <row r="43" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="23"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="23"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K42">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I42">
     <sortCondition ref="B2:B42"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://leetcode.com/problems/two-sum/description/" xr:uid="{D29A1F65-8394-4D89-BD96-17CD60D15AFD}"/>
-    <hyperlink ref="D20" r:id="rId2" xr:uid="{3A7CEF42-3337-4C95-84AC-B7CAF9B28B7F}"/>
-    <hyperlink ref="D21" r:id="rId3" xr:uid="{6B70FD5E-C0D2-445D-BDB3-4DB279AB8A7B}"/>
-    <hyperlink ref="D25" r:id="rId4" xr:uid="{A248292A-243F-409F-94AA-C731025CF02A}"/>
-    <hyperlink ref="D23" r:id="rId5" xr:uid="{68AE57ED-F523-4FD0-8423-21CCC6C328A5}"/>
-    <hyperlink ref="D5" r:id="rId6" xr:uid="{7E99A919-0A12-4725-AEEE-0A6D4B0AEBE8}"/>
-    <hyperlink ref="D10" r:id="rId7" xr:uid="{2E4AB602-75C1-45E8-B9E9-1B16196F8BB9}"/>
-    <hyperlink ref="D15" r:id="rId8" xr:uid="{9FDD29CA-7B6F-4D9C-B8AB-2CA22F1BD75D}"/>
-    <hyperlink ref="D7" r:id="rId9" xr:uid="{D47E6F13-2C77-4D9C-A0C2-3A61BB7DB7F7}"/>
-    <hyperlink ref="D12" r:id="rId10" xr:uid="{9C7F51E0-A421-48E3-A675-090808C1F22C}"/>
-    <hyperlink ref="D22" r:id="rId11" xr:uid="{E51C5646-FEE1-44F7-91C4-364A6DFCFF85}"/>
-    <hyperlink ref="D27" r:id="rId12" xr:uid="{EA1E0AA8-8F6F-4265-84F0-6C4AB0FA52AB}"/>
-    <hyperlink ref="D26" r:id="rId13" xr:uid="{1D16F9F4-D9DC-49D7-A64B-F7F293ADC1B4}"/>
-    <hyperlink ref="D3" r:id="rId14" xr:uid="{8550C157-C895-4E10-8151-A29957550A7F}"/>
-    <hyperlink ref="D4" r:id="rId15" xr:uid="{2BC18D0F-9C3B-484A-9BAB-F5F1860DAAB1}"/>
-    <hyperlink ref="D29" r:id="rId16" xr:uid="{3651F195-4484-4B60-9381-160A18299D79}"/>
-    <hyperlink ref="D28" r:id="rId17" xr:uid="{636A9039-9CA1-4DCC-A5DB-79562BBBC056}"/>
-    <hyperlink ref="D6" r:id="rId18" xr:uid="{DC17FDF3-9A9B-4FEA-9D6A-DF4252E08036}"/>
-    <hyperlink ref="D11" r:id="rId19" xr:uid="{6F6969B7-A411-4085-9E8F-58E3BF1FF942}"/>
-    <hyperlink ref="D24" r:id="rId20" xr:uid="{CA194911-BED7-40B0-B5B4-D5638F409E73}"/>
-    <hyperlink ref="D14" r:id="rId21" xr:uid="{3BF7A565-83B5-4AAE-BAC3-B58A69DEAE20}"/>
-    <hyperlink ref="D8" r:id="rId22" xr:uid="{8D63FD65-E0C5-4A54-BDEF-860350E0B7FD}"/>
-    <hyperlink ref="D30" r:id="rId23" xr:uid="{90C58A53-6B5A-4F1A-AF8C-7CD4898E0DE7}"/>
-    <hyperlink ref="D17" r:id="rId24" xr:uid="{E3888C7C-DDBB-4226-8610-B38F3E7E7E6D}"/>
-    <hyperlink ref="D13" r:id="rId25" xr:uid="{84F8ED1F-E79B-42C7-9196-F87C516A6D64}"/>
-    <hyperlink ref="D9" r:id="rId26" xr:uid="{F769BE77-B97E-4C25-811E-BFB3347ABB05}"/>
-    <hyperlink ref="D32" r:id="rId27" xr:uid="{930ADD2A-EEA0-47F9-82BA-A4ECB6B25E50}"/>
-    <hyperlink ref="D16" r:id="rId28" xr:uid="{B844A605-41FB-4385-B130-985FBD14C189}"/>
-    <hyperlink ref="D31" r:id="rId29" xr:uid="{75FAD807-8F2F-4605-AA42-7430E89F39B4}"/>
-    <hyperlink ref="D34" r:id="rId30" xr:uid="{DDD204B7-56F6-46D6-B0CA-16C89391A38C}"/>
+    <hyperlink ref="K2" r:id="rId1" display="https://leetcode.com/problems/two-sum/description/" xr:uid="{D29A1F65-8394-4D89-BD96-17CD60D15AFD}"/>
+    <hyperlink ref="K20" r:id="rId2" xr:uid="{3A7CEF42-3337-4C95-84AC-B7CAF9B28B7F}"/>
+    <hyperlink ref="K21" r:id="rId3" xr:uid="{6B70FD5E-C0D2-445D-BDB3-4DB279AB8A7B}"/>
+    <hyperlink ref="K25" r:id="rId4" xr:uid="{A248292A-243F-409F-94AA-C731025CF02A}"/>
+    <hyperlink ref="K23" r:id="rId5" xr:uid="{68AE57ED-F523-4FD0-8423-21CCC6C328A5}"/>
+    <hyperlink ref="K5" r:id="rId6" xr:uid="{7E99A919-0A12-4725-AEEE-0A6D4B0AEBE8}"/>
+    <hyperlink ref="K10" r:id="rId7" xr:uid="{2E4AB602-75C1-45E8-B9E9-1B16196F8BB9}"/>
+    <hyperlink ref="K15" r:id="rId8" xr:uid="{9FDD29CA-7B6F-4D9C-B8AB-2CA22F1BD75D}"/>
+    <hyperlink ref="K7" r:id="rId9" xr:uid="{D47E6F13-2C77-4D9C-A0C2-3A61BB7DB7F7}"/>
+    <hyperlink ref="K12" r:id="rId10" xr:uid="{9C7F51E0-A421-48E3-A675-090808C1F22C}"/>
+    <hyperlink ref="K22" r:id="rId11" xr:uid="{E51C5646-FEE1-44F7-91C4-364A6DFCFF85}"/>
+    <hyperlink ref="K27" r:id="rId12" xr:uid="{EA1E0AA8-8F6F-4265-84F0-6C4AB0FA52AB}"/>
+    <hyperlink ref="K26" r:id="rId13" xr:uid="{1D16F9F4-D9DC-49D7-A64B-F7F293ADC1B4}"/>
+    <hyperlink ref="K3" r:id="rId14" xr:uid="{8550C157-C895-4E10-8151-A29957550A7F}"/>
+    <hyperlink ref="K4" r:id="rId15" xr:uid="{2BC18D0F-9C3B-484A-9BAB-F5F1860DAAB1}"/>
+    <hyperlink ref="K29" r:id="rId16" xr:uid="{3651F195-4484-4B60-9381-160A18299D79}"/>
+    <hyperlink ref="K28" r:id="rId17" xr:uid="{636A9039-9CA1-4DCC-A5DB-79562BBBC056}"/>
+    <hyperlink ref="K6" r:id="rId18" xr:uid="{DC17FDF3-9A9B-4FEA-9D6A-DF4252E08036}"/>
+    <hyperlink ref="K11" r:id="rId19" xr:uid="{6F6969B7-A411-4085-9E8F-58E3BF1FF942}"/>
+    <hyperlink ref="K24" r:id="rId20" xr:uid="{CA194911-BED7-40B0-B5B4-D5638F409E73}"/>
+    <hyperlink ref="K14" r:id="rId21" xr:uid="{3BF7A565-83B5-4AAE-BAC3-B58A69DEAE20}"/>
+    <hyperlink ref="K8" r:id="rId22" xr:uid="{8D63FD65-E0C5-4A54-BDEF-860350E0B7FD}"/>
+    <hyperlink ref="K30" r:id="rId23" xr:uid="{90C58A53-6B5A-4F1A-AF8C-7CD4898E0DE7}"/>
+    <hyperlink ref="K17" r:id="rId24" xr:uid="{E3888C7C-DDBB-4226-8610-B38F3E7E7E6D}"/>
+    <hyperlink ref="K13" r:id="rId25" xr:uid="{84F8ED1F-E79B-42C7-9196-F87C516A6D64}"/>
+    <hyperlink ref="K9" r:id="rId26" xr:uid="{F769BE77-B97E-4C25-811E-BFB3347ABB05}"/>
+    <hyperlink ref="K32" r:id="rId27" xr:uid="{930ADD2A-EEA0-47F9-82BA-A4ECB6B25E50}"/>
+    <hyperlink ref="K16" r:id="rId28" xr:uid="{B844A605-41FB-4385-B130-985FBD14C189}"/>
+    <hyperlink ref="K31" r:id="rId29" xr:uid="{75FAD807-8F2F-4605-AA42-7430E89F39B4}"/>
+    <hyperlink ref="K34" r:id="rId30" xr:uid="{DDD204B7-56F6-46D6-B0CA-16C89391A38C}"/>
+    <hyperlink ref="K33" r:id="rId31" xr:uid="{9E4AB776-D33D-4E45-8AB2-CD1CF5D0EBBE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId31"/>
+  <pageSetup orientation="portrait" r:id="rId32"/>
 </worksheet>
 </file>
--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agneshk\pc\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725F2905-F261-4D5B-98F5-1AB0A649AC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F086D8-63B6-41A2-B0FF-99D02899FDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1605" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -543,7 +543,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -603,16 +603,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -894,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1887,161 +1877,93 @@
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="24" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C35" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="23"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="23" t="s">
+      <c r="G35" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H35" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="J35" s="24"/>
-      <c r="K35" s="23"/>
-    </row>
-    <row r="36" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="24" t="s">
+      <c r="H35" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C36" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D36" s="23"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="23" t="s">
+      <c r="G36" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H36" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="J36" s="24"/>
-      <c r="K36" s="23"/>
-    </row>
-    <row r="37" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="24" t="s">
+      <c r="H36" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C37" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D37" s="23"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="23" t="s">
+      <c r="G37" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H37" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="J37" s="24"/>
-      <c r="K37" s="23"/>
-    </row>
-    <row r="38" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="24" t="s">
+      <c r="H37" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C38" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D38" s="23"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="23" t="s">
+      <c r="G38" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H38" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="J38" s="24"/>
-      <c r="K38" s="23"/>
-    </row>
-    <row r="39" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="24" t="s">
+      <c r="H38" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C39" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D39" s="23"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="23" t="s">
+      <c r="G39" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H39" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="J39" s="24"/>
-      <c r="K39" s="23"/>
-    </row>
-    <row r="40" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="23"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="24" t="s">
+      <c r="H39" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C40" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D40" s="23"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="23" t="s">
+      <c r="G40" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H40" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="J40" s="24"/>
-      <c r="K40" s="23"/>
-    </row>
-    <row r="41" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="23"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="24" t="s">
+      <c r="H40" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C41" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D41" s="23"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="23" t="s">
+      <c r="G41" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H41" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="J41" s="24"/>
-      <c r="K41" s="23"/>
-    </row>
-    <row r="42" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="23"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="24" t="s">
+      <c r="H41" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C42" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D42" s="23"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="23" t="s">
+      <c r="G42" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H42" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="J42" s="24"/>
-      <c r="K42" s="23"/>
-    </row>
-    <row r="43" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="23"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="23"/>
+      <c r="H42" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I42">

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agneshk\pc\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F086D8-63B6-41A2-B0FF-99D02899FDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876810E7-2097-44A5-B053-EDE85AF8A18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1605" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="146">
   <si>
     <t>url</t>
   </si>
@@ -457,6 +457,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/longest-consecutive-sequence/description/</t>
+  </si>
+  <si>
+    <t>Using sliding window technique, check if (cur_len - len_max_repeats) &lt;= k.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-repeating-character-replacement/description/</t>
   </si>
 </sst>
 </file>
@@ -884,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -902,7 +908,7 @@
     <col min="8" max="8" width="8.88671875" style="1"/>
     <col min="9" max="9" width="8.88671875" style="5"/>
     <col min="10" max="10" width="29.21875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="73.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="80.88671875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
@@ -1877,59 +1883,39 @@
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C35" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C36" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C37" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C38" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C39" s="3" t="s">
+    <row r="35" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="14">
+        <v>424</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="D35" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="F35" s="19">
+        <v>45510</v>
+      </c>
+      <c r="G35" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>99</v>
+      <c r="H35" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I35" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J35" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="K35" s="16" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -1962,6 +1948,50 @@
         <v>120</v>
       </c>
       <c r="H42" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C43" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C44" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C45" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C46" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2002,8 +2032,9 @@
     <hyperlink ref="K31" r:id="rId29" xr:uid="{75FAD807-8F2F-4605-AA42-7430E89F39B4}"/>
     <hyperlink ref="K34" r:id="rId30" xr:uid="{DDD204B7-56F6-46D6-B0CA-16C89391A38C}"/>
     <hyperlink ref="K33" r:id="rId31" xr:uid="{9E4AB776-D33D-4E45-8AB2-CD1CF5D0EBBE}"/>
+    <hyperlink ref="K35" r:id="rId32" xr:uid="{0F61D851-BD73-4FFA-BA90-A9FD6037D508}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId32"/>
+  <pageSetup orientation="portrait" r:id="rId33"/>
 </worksheet>
 </file>
--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agneshk\pc\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876810E7-2097-44A5-B053-EDE85AF8A18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FB40A5-D232-487D-A5FB-90AC62541D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1605" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="159">
   <si>
     <t>url</t>
   </si>
@@ -463,6 +463,45 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/longest-repeating-character-replacement/description/</t>
+  </si>
+  <si>
+    <t>Climbing Stairs</t>
+  </si>
+  <si>
+    <t>House Robber</t>
+  </si>
+  <si>
+    <t>House Robber II</t>
+  </si>
+  <si>
+    <t>Longest Palindromic Substring</t>
+  </si>
+  <si>
+    <t>Palindromic Substrings</t>
+  </si>
+  <si>
+    <t>Decode Ways</t>
+  </si>
+  <si>
+    <t>Coin Change</t>
+  </si>
+  <si>
+    <t>Maximum Product Subarray</t>
+  </si>
+  <si>
+    <t>Word Break</t>
+  </si>
+  <si>
+    <t>Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>Use the DP Framework. Use two base cases for bottom up DP approach and start iteration from 3rd index.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/climbing-stairs/description/</t>
   </si>
 </sst>
 </file>
@@ -549,7 +588,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -609,6 +648,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -890,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1396,50 +1445,69 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+    <row r="17" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
+        <v>70</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" s="20">
+        <v>45510</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="11"/>
+      <c r="K17" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
         <v>142</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B18" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="D18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F18" s="21">
         <v>45500</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G18" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="H18" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K18" s="8" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1447,248 +1515,242 @@
         <v>93</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="D20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14">
-        <v>3</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="16" t="s">
-        <v>7</v>
-      </c>
+      <c r="H20" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="J20" s="24"/>
+      <c r="K20" s="23"/>
     </row>
     <row r="21" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="14" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H21" s="14" t="s">
         <v>99</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="K21" s="16" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="14" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="H22" s="14" t="s">
         <v>99</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="14"/>
+        <v>46</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>5</v>
+      </c>
       <c r="E23" s="15" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="F23" s="19"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
+      <c r="G23" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>99</v>
+      </c>
       <c r="J23" s="15" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="K23" s="16" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>5</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D24" s="14"/>
       <c r="E24" s="15" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="J24" s="15" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="K24" s="16" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="J25" s="15" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="K25" s="16" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="J26" s="15" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="K26" s="16" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
-        <v>230</v>
+        <v>167</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="J27" s="15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K27" s="16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
-        <v>1190</v>
+        <v>230</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="14"/>
@@ -1697,224 +1759,250 @@
         <v>30</v>
       </c>
       <c r="K28" s="16" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
-        <v>1701</v>
+        <v>1190</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
-      <c r="J29" s="15"/>
+      <c r="J29" s="15" t="s">
+        <v>30</v>
+      </c>
       <c r="K29" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
-        <v>2191</v>
+        <v>1701</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="F30" s="19">
-        <v>45497</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="F30" s="19"/>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
-      <c r="J30" s="15" t="s">
-        <v>90</v>
-      </c>
+      <c r="J30" s="15"/>
       <c r="K30" s="16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
-        <v>238</v>
+        <v>2191</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="F31" s="19">
-        <v>45503</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="H31" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="I31" s="17" t="s">
-        <v>22</v>
-      </c>
+        <v>45497</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
       <c r="J31" s="15" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="K31" s="16" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="17" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14">
-        <v>15</v>
+        <v>238</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="19"/>
+        <v>5</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="F32" s="19">
+        <v>45503</v>
+      </c>
       <c r="G32" s="14" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="H32" s="14" t="s">
         <v>99</v>
       </c>
+      <c r="I32" s="17" t="s">
+        <v>22</v>
+      </c>
       <c r="J32" s="15" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="K32" s="16" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="F33" s="19">
-        <v>45505</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E33" s="15"/>
+      <c r="F33" s="19"/>
       <c r="G33" s="14" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="H33" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I33" s="17" t="s">
-        <v>93</v>
-      </c>
       <c r="J33" s="15" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14">
-        <v>6</v>
+        <v>128</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F34" s="19">
         <v>45505</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="H34" s="14"/>
+        <v>100</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>99</v>
+      </c>
       <c r="I34" s="17" t="s">
         <v>93</v>
       </c>
       <c r="J34" s="15" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14">
-        <v>424</v>
+        <v>6</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C35" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F35" s="19">
+        <v>45505</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H35" s="14"/>
+      <c r="I35" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="J35" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="K35" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="14">
+        <v>424</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="D35" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="15" t="s">
+      <c r="D36" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F36" s="19">
         <v>45510</v>
       </c>
-      <c r="G35" s="14" t="s">
+      <c r="G36" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="H35" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="I35" s="17" t="s">
+      <c r="H36" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I36" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="J35" s="15" t="s">
+      <c r="J36" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="K35" s="16" t="s">
+      <c r="K36" s="16" t="s">
         <v>145</v>
       </c>
     </row>
@@ -1995,46 +2083,119 @@
         <v>99</v>
       </c>
     </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C49" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C50" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C51" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C52" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C53" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C54" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C55" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C56" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C57" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I42">
-    <sortCondition ref="B2:B42"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K57">
+    <sortCondition ref="B1:B57"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1" display="https://leetcode.com/problems/two-sum/description/" xr:uid="{D29A1F65-8394-4D89-BD96-17CD60D15AFD}"/>
-    <hyperlink ref="K20" r:id="rId2" xr:uid="{3A7CEF42-3337-4C95-84AC-B7CAF9B28B7F}"/>
-    <hyperlink ref="K21" r:id="rId3" xr:uid="{6B70FD5E-C0D2-445D-BDB3-4DB279AB8A7B}"/>
-    <hyperlink ref="K25" r:id="rId4" xr:uid="{A248292A-243F-409F-94AA-C731025CF02A}"/>
-    <hyperlink ref="K23" r:id="rId5" xr:uid="{68AE57ED-F523-4FD0-8423-21CCC6C328A5}"/>
+    <hyperlink ref="K21" r:id="rId2" xr:uid="{3A7CEF42-3337-4C95-84AC-B7CAF9B28B7F}"/>
+    <hyperlink ref="K22" r:id="rId3" xr:uid="{6B70FD5E-C0D2-445D-BDB3-4DB279AB8A7B}"/>
+    <hyperlink ref="K26" r:id="rId4" xr:uid="{A248292A-243F-409F-94AA-C731025CF02A}"/>
+    <hyperlink ref="K24" r:id="rId5" xr:uid="{68AE57ED-F523-4FD0-8423-21CCC6C328A5}"/>
     <hyperlink ref="K5" r:id="rId6" xr:uid="{7E99A919-0A12-4725-AEEE-0A6D4B0AEBE8}"/>
     <hyperlink ref="K10" r:id="rId7" xr:uid="{2E4AB602-75C1-45E8-B9E9-1B16196F8BB9}"/>
     <hyperlink ref="K15" r:id="rId8" xr:uid="{9FDD29CA-7B6F-4D9C-B8AB-2CA22F1BD75D}"/>
     <hyperlink ref="K7" r:id="rId9" xr:uid="{D47E6F13-2C77-4D9C-A0C2-3A61BB7DB7F7}"/>
     <hyperlink ref="K12" r:id="rId10" xr:uid="{9C7F51E0-A421-48E3-A675-090808C1F22C}"/>
-    <hyperlink ref="K22" r:id="rId11" xr:uid="{E51C5646-FEE1-44F7-91C4-364A6DFCFF85}"/>
-    <hyperlink ref="K27" r:id="rId12" xr:uid="{EA1E0AA8-8F6F-4265-84F0-6C4AB0FA52AB}"/>
-    <hyperlink ref="K26" r:id="rId13" xr:uid="{1D16F9F4-D9DC-49D7-A64B-F7F293ADC1B4}"/>
+    <hyperlink ref="K23" r:id="rId11" xr:uid="{E51C5646-FEE1-44F7-91C4-364A6DFCFF85}"/>
+    <hyperlink ref="K28" r:id="rId12" xr:uid="{EA1E0AA8-8F6F-4265-84F0-6C4AB0FA52AB}"/>
+    <hyperlink ref="K27" r:id="rId13" xr:uid="{1D16F9F4-D9DC-49D7-A64B-F7F293ADC1B4}"/>
     <hyperlink ref="K3" r:id="rId14" xr:uid="{8550C157-C895-4E10-8151-A29957550A7F}"/>
     <hyperlink ref="K4" r:id="rId15" xr:uid="{2BC18D0F-9C3B-484A-9BAB-F5F1860DAAB1}"/>
-    <hyperlink ref="K29" r:id="rId16" xr:uid="{3651F195-4484-4B60-9381-160A18299D79}"/>
-    <hyperlink ref="K28" r:id="rId17" xr:uid="{636A9039-9CA1-4DCC-A5DB-79562BBBC056}"/>
+    <hyperlink ref="K30" r:id="rId16" xr:uid="{3651F195-4484-4B60-9381-160A18299D79}"/>
+    <hyperlink ref="K29" r:id="rId17" xr:uid="{636A9039-9CA1-4DCC-A5DB-79562BBBC056}"/>
     <hyperlink ref="K6" r:id="rId18" xr:uid="{DC17FDF3-9A9B-4FEA-9D6A-DF4252E08036}"/>
     <hyperlink ref="K11" r:id="rId19" xr:uid="{6F6969B7-A411-4085-9E8F-58E3BF1FF942}"/>
-    <hyperlink ref="K24" r:id="rId20" xr:uid="{CA194911-BED7-40B0-B5B4-D5638F409E73}"/>
+    <hyperlink ref="K25" r:id="rId20" xr:uid="{CA194911-BED7-40B0-B5B4-D5638F409E73}"/>
     <hyperlink ref="K14" r:id="rId21" xr:uid="{3BF7A565-83B5-4AAE-BAC3-B58A69DEAE20}"/>
     <hyperlink ref="K8" r:id="rId22" xr:uid="{8D63FD65-E0C5-4A54-BDEF-860350E0B7FD}"/>
-    <hyperlink ref="K30" r:id="rId23" xr:uid="{90C58A53-6B5A-4F1A-AF8C-7CD4898E0DE7}"/>
-    <hyperlink ref="K17" r:id="rId24" xr:uid="{E3888C7C-DDBB-4226-8610-B38F3E7E7E6D}"/>
+    <hyperlink ref="K31" r:id="rId23" xr:uid="{90C58A53-6B5A-4F1A-AF8C-7CD4898E0DE7}"/>
+    <hyperlink ref="K18" r:id="rId24" xr:uid="{E3888C7C-DDBB-4226-8610-B38F3E7E7E6D}"/>
     <hyperlink ref="K13" r:id="rId25" xr:uid="{84F8ED1F-E79B-42C7-9196-F87C516A6D64}"/>
     <hyperlink ref="K9" r:id="rId26" xr:uid="{F769BE77-B97E-4C25-811E-BFB3347ABB05}"/>
-    <hyperlink ref="K32" r:id="rId27" xr:uid="{930ADD2A-EEA0-47F9-82BA-A4ECB6B25E50}"/>
+    <hyperlink ref="K33" r:id="rId27" xr:uid="{930ADD2A-EEA0-47F9-82BA-A4ECB6B25E50}"/>
     <hyperlink ref="K16" r:id="rId28" xr:uid="{B844A605-41FB-4385-B130-985FBD14C189}"/>
-    <hyperlink ref="K31" r:id="rId29" xr:uid="{75FAD807-8F2F-4605-AA42-7430E89F39B4}"/>
-    <hyperlink ref="K34" r:id="rId30" xr:uid="{DDD204B7-56F6-46D6-B0CA-16C89391A38C}"/>
-    <hyperlink ref="K33" r:id="rId31" xr:uid="{9E4AB776-D33D-4E45-8AB2-CD1CF5D0EBBE}"/>
-    <hyperlink ref="K35" r:id="rId32" xr:uid="{0F61D851-BD73-4FFA-BA90-A9FD6037D508}"/>
+    <hyperlink ref="K32" r:id="rId29" xr:uid="{75FAD807-8F2F-4605-AA42-7430E89F39B4}"/>
+    <hyperlink ref="K35" r:id="rId30" xr:uid="{DDD204B7-56F6-46D6-B0CA-16C89391A38C}"/>
+    <hyperlink ref="K34" r:id="rId31" xr:uid="{9E4AB776-D33D-4E45-8AB2-CD1CF5D0EBBE}"/>
+    <hyperlink ref="K36" r:id="rId32" xr:uid="{0F61D851-BD73-4FFA-BA90-A9FD6037D508}"/>
+    <hyperlink ref="K17" r:id="rId33" xr:uid="{34282F68-C87F-4621-A253-3FB459EF4969}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId33"/>
+  <pageSetup orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>
--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agneshk\pc\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FB40A5-D232-487D-A5FB-90AC62541D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DB0153-8F95-45D0-AE0D-E91F4F2E8981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1605" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="161">
   <si>
     <t>url</t>
   </si>
@@ -240,9 +240,6 @@
     <t>Use recurrsion cleverly</t>
   </si>
   <si>
-    <t>Approach</t>
-  </si>
-  <si>
     <t>Invert Binary Tree</t>
   </si>
   <si>
@@ -502,6 +499,15 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/climbing-stairs/description/</t>
+  </si>
+  <si>
+    <t>Solve some base cases to form the recurrance relation and then use Bottom Up DP using two variables</t>
+  </si>
+  <si>
+    <t>Input DS</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/house-robber/description/</t>
   </si>
 </sst>
 </file>
@@ -588,7 +594,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -648,16 +654,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -939,10 +935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -978,19 +974,19 @@
         <v>6</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>0</v>
@@ -1014,10 +1010,10 @@
       </c>
       <c r="F2" s="20"/>
       <c r="G2" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>17</v>
@@ -1047,7 +1043,7 @@
         <v>30</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>30</v>
@@ -1074,10 +1070,10 @@
       </c>
       <c r="F4" s="20"/>
       <c r="G4" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>44</v>
@@ -1130,10 +1126,10 @@
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>69</v>
@@ -1160,10 +1156,10 @@
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J7" s="11" t="s">
         <v>69</v>
@@ -1180,26 +1176,26 @@
         <v>23</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F8" s="20">
         <v>45496</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -1210,28 +1206,28 @@
         <v>23</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F9" s="20">
         <v>45500</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -1252,10 +1248,10 @@
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>34</v>
@@ -1272,26 +1268,26 @@
         <v>23</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J11" s="11" t="s">
         <v>69</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -1328,28 +1324,28 @@
         <v>23</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F13" s="20">
         <v>45500</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="13" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1360,28 +1356,28 @@
         <v>23</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D14" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>83</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>84</v>
       </c>
       <c r="F14" s="20">
         <v>45492</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -1418,31 +1414,31 @@
         <v>23</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F16" s="20">
         <v>45503</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>23</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -1453,96 +1449,30 @@
         <v>23</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F17" s="20">
         <v>45510</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I17" s="13" t="s">
         <v>23</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="12" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
-        <v>142</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="21">
-        <v>45500</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="J20" s="24"/>
-      <c r="K20" s="23"/>
+        <v>157</v>
+      </c>
     </row>
     <row r="21" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
@@ -1562,10 +1492,10 @@
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J21" s="15" t="s">
         <v>17</v>
@@ -1592,10 +1522,10 @@
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J22" s="15" t="s">
         <v>8</v>
@@ -1622,10 +1552,10 @@
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J23" s="15" t="s">
         <v>34</v>
@@ -1666,22 +1596,22 @@
         <v>22</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="J25" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K25" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -1820,13 +1750,13 @@
         <v>22</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D31" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="15" t="s">
         <v>91</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>92</v>
       </c>
       <c r="F31" s="19">
         <v>45497</v>
@@ -1834,10 +1764,10 @@
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="J31" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K31" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="17" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1848,31 +1778,31 @@
         <v>22</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F32" s="19">
         <v>45503</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I32" s="17" t="s">
         <v>22</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K32" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -1883,7 +1813,7 @@
         <v>22</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>18</v>
@@ -1891,16 +1821,16 @@
       <c r="E33" s="15"/>
       <c r="F33" s="19"/>
       <c r="G33" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J33" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -1911,31 +1841,31 @@
         <v>22</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F34" s="19">
         <v>45505</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I34" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J34" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -1946,32 +1876,32 @@
         <v>22</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F35" s="19">
         <v>45505</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H35" s="14"/>
       <c r="I35" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J35" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14">
         <v>424</v>
       </c>
@@ -1979,180 +1909,267 @@
         <v>22</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F36" s="19">
         <v>45510</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I36" s="17" t="s">
         <v>23</v>
       </c>
       <c r="J36" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K36" s="16" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C40" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="14">
+        <v>198</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="F37" s="19">
+        <v>45512</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I37" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J37" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="K37" s="16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="9" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
+        <v>142</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F43" s="21">
+        <v>45500</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C69" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C70" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H40" s="1" t="s">
+      <c r="G70" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C71" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C72" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G72" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C41" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H41" s="1" t="s">
+      <c r="H72" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C73" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G73" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C42" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H42" s="1" t="s">
+      <c r="H73" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C74" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G74" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C43" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C44" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C45" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C46" s="3" t="s">
+      <c r="H74" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C75" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G75" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C49" s="3" t="s">
+      <c r="H75" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C79" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C50" s="3" t="s">
+      <c r="G79" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C80" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C51" s="3" t="s">
+      <c r="G80" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="81" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C81" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C52" s="3" t="s">
+      <c r="G81" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C82" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C53" s="3" t="s">
+      <c r="G82" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="83" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C83" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C54" s="3" t="s">
+      <c r="G83" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="84" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C84" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C55" s="3" t="s">
+      <c r="G84" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="85" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C85" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C56" s="3" t="s">
+      <c r="G85" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="86" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C86" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="G56" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C57" s="3" t="s">
+      <c r="G86" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2184,7 +2201,7 @@
     <hyperlink ref="K14" r:id="rId21" xr:uid="{3BF7A565-83B5-4AAE-BAC3-B58A69DEAE20}"/>
     <hyperlink ref="K8" r:id="rId22" xr:uid="{8D63FD65-E0C5-4A54-BDEF-860350E0B7FD}"/>
     <hyperlink ref="K31" r:id="rId23" xr:uid="{90C58A53-6B5A-4F1A-AF8C-7CD4898E0DE7}"/>
-    <hyperlink ref="K18" r:id="rId24" xr:uid="{E3888C7C-DDBB-4226-8610-B38F3E7E7E6D}"/>
+    <hyperlink ref="K43" r:id="rId24" xr:uid="{E3888C7C-DDBB-4226-8610-B38F3E7E7E6D}"/>
     <hyperlink ref="K13" r:id="rId25" xr:uid="{84F8ED1F-E79B-42C7-9196-F87C516A6D64}"/>
     <hyperlink ref="K9" r:id="rId26" xr:uid="{F769BE77-B97E-4C25-811E-BFB3347ABB05}"/>
     <hyperlink ref="K33" r:id="rId27" xr:uid="{930ADD2A-EEA0-47F9-82BA-A4ECB6B25E50}"/>
@@ -2194,8 +2211,9 @@
     <hyperlink ref="K34" r:id="rId31" xr:uid="{9E4AB776-D33D-4E45-8AB2-CD1CF5D0EBBE}"/>
     <hyperlink ref="K36" r:id="rId32" xr:uid="{0F61D851-BD73-4FFA-BA90-A9FD6037D508}"/>
     <hyperlink ref="K17" r:id="rId33" xr:uid="{34282F68-C87F-4621-A253-3FB459EF4969}"/>
+    <hyperlink ref="K37" r:id="rId34" xr:uid="{1EB6EE59-6351-4483-AF1D-DC33FF49EE15}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId34"/>
+  <pageSetup orientation="portrait" r:id="rId35"/>
 </worksheet>
 </file>
--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agneshk\pc\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DB0153-8F95-45D0-AE0D-E91F4F2E8981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D804E1E8-9D50-4B10-BBEC-A624B62F7918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1605" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="163">
   <si>
     <t>url</t>
   </si>
@@ -508,6 +508,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/house-robber/description/</t>
+  </si>
+  <si>
+    <t>"If we cut a circle and straighten it, we get a line", max(rob1([:-1]) , rob1(1:])</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/house-robber-ii/description/</t>
   </si>
 </sst>
 </file>
@@ -935,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K86"/>
+  <dimension ref="A1:K87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1971,50 +1977,71 @@
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="9" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="6">
+    <row r="38" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="14">
+        <v>213</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="F38" s="19">
+        <v>45512</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I38" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="J38" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="K38" s="16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="9" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6">
         <v>142</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B44" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C44" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="7" t="s">
+      <c r="D44" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F43" s="21">
+      <c r="F44" s="21">
         <v>45500</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="G44" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="H43" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="J43" s="7" t="s">
+      <c r="H44" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J44" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K43" s="8" t="s">
+      <c r="K44" s="8" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -2022,29 +2049,32 @@
         <v>92</v>
       </c>
       <c r="C45" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="69" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C69" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H69" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="70" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C70" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>115</v>
@@ -2055,10 +2085,10 @@
     </row>
     <row r="71" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C71" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>98</v>
@@ -2066,10 +2096,10 @@
     </row>
     <row r="72" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C72" s="3" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>98</v>
@@ -2077,7 +2107,7 @@
     </row>
     <row r="73" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C73" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>99</v>
@@ -2088,7 +2118,7 @@
     </row>
     <row r="74" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C74" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>99</v>
@@ -2099,34 +2129,29 @@
     </row>
     <row r="75" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C75" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C76" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="G76" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H75" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="79" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C79" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="80" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C80" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>155</v>
+      <c r="H76" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C81" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>155</v>
@@ -2134,7 +2159,7 @@
     </row>
     <row r="82" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C82" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>155</v>
@@ -2142,7 +2167,7 @@
     </row>
     <row r="83" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C83" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>155</v>
@@ -2150,7 +2175,7 @@
     </row>
     <row r="84" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C84" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>155</v>
@@ -2158,7 +2183,7 @@
     </row>
     <row r="85" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C85" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>155</v>
@@ -2166,15 +2191,23 @@
     </row>
     <row r="86" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C86" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>155</v>
       </c>
     </row>
+    <row r="87" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C87" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K57">
-    <sortCondition ref="B1:B57"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K58">
+    <sortCondition ref="B1:B58"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -2201,7 +2234,7 @@
     <hyperlink ref="K14" r:id="rId21" xr:uid="{3BF7A565-83B5-4AAE-BAC3-B58A69DEAE20}"/>
     <hyperlink ref="K8" r:id="rId22" xr:uid="{8D63FD65-E0C5-4A54-BDEF-860350E0B7FD}"/>
     <hyperlink ref="K31" r:id="rId23" xr:uid="{90C58A53-6B5A-4F1A-AF8C-7CD4898E0DE7}"/>
-    <hyperlink ref="K43" r:id="rId24" xr:uid="{E3888C7C-DDBB-4226-8610-B38F3E7E7E6D}"/>
+    <hyperlink ref="K44" r:id="rId24" xr:uid="{E3888C7C-DDBB-4226-8610-B38F3E7E7E6D}"/>
     <hyperlink ref="K13" r:id="rId25" xr:uid="{84F8ED1F-E79B-42C7-9196-F87C516A6D64}"/>
     <hyperlink ref="K9" r:id="rId26" xr:uid="{F769BE77-B97E-4C25-811E-BFB3347ABB05}"/>
     <hyperlink ref="K33" r:id="rId27" xr:uid="{930ADD2A-EEA0-47F9-82BA-A4ECB6B25E50}"/>
@@ -2212,8 +2245,9 @@
     <hyperlink ref="K36" r:id="rId32" xr:uid="{0F61D851-BD73-4FFA-BA90-A9FD6037D508}"/>
     <hyperlink ref="K17" r:id="rId33" xr:uid="{34282F68-C87F-4621-A253-3FB459EF4969}"/>
     <hyperlink ref="K37" r:id="rId34" xr:uid="{1EB6EE59-6351-4483-AF1D-DC33FF49EE15}"/>
+    <hyperlink ref="K38" r:id="rId35" xr:uid="{18170A3C-C069-4B16-B289-9FD8B99DAF52}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId35"/>
+  <pageSetup orientation="portrait" r:id="rId36"/>
 </worksheet>
 </file>
--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agneshk\pc\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D804E1E8-9D50-4B10-BBEC-A624B62F7918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5874A7CF-D961-4177-83FD-75502513517E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1605" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="165">
   <si>
     <t>url</t>
   </si>
@@ -514,6 +514,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/house-robber-ii/description/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is not straight forward DP. The answer is not present in dp[-1]! </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-increasing-subsequence/description/</t>
   </si>
 </sst>
 </file>
@@ -941,10 +947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K87"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2012,50 +2018,71 @@
         <v>162</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="9" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="6">
+    <row r="39" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="14">
+        <v>300</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="F39" s="19">
+        <v>45514</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I39" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="K39" s="16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="9" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
         <v>142</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B45" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C45" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D44" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="7" t="s">
+      <c r="D45" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F44" s="21">
+      <c r="F45" s="21">
         <v>45500</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="G45" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="H44" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="J44" s="7" t="s">
+      <c r="H45" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J45" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K44" s="8" t="s">
+      <c r="K45" s="8" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -2063,151 +2090,157 @@
         <v>92</v>
       </c>
       <c r="C46" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="70" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C70" s="3" t="s">
+      <c r="H47" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C51" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H70" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="71" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C71" s="3" t="s">
+      <c r="H51" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C52" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H71" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="72" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C72" s="3" t="s">
+      <c r="H52" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C53" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H72" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="73" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C73" s="3" t="s">
+      <c r="H53" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C54" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H73" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="74" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C74" s="3" t="s">
+      <c r="H54" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C55" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H74" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="75" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C75" s="3" t="s">
+      <c r="H55" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C56" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H75" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="76" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C76" s="3" t="s">
+      <c r="H56" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C57" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H76" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C81" s="3" t="s">
+      <c r="H57" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C62" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="G62" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C82" s="3" t="s">
+    <row r="63" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C63" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C83" s="3" t="s">
+    <row r="64" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C64" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="G64" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C84" s="3" t="s">
+    <row r="65" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C65" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="G65" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C85" s="3" t="s">
+    <row r="66" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C66" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C86" s="3" t="s">
+    <row r="67" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C67" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="G67" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C87" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K58">
-    <sortCondition ref="B1:B58"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K49">
+    <sortCondition ref="B1:B49"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -2234,7 +2267,7 @@
     <hyperlink ref="K14" r:id="rId21" xr:uid="{3BF7A565-83B5-4AAE-BAC3-B58A69DEAE20}"/>
     <hyperlink ref="K8" r:id="rId22" xr:uid="{8D63FD65-E0C5-4A54-BDEF-860350E0B7FD}"/>
     <hyperlink ref="K31" r:id="rId23" xr:uid="{90C58A53-6B5A-4F1A-AF8C-7CD4898E0DE7}"/>
-    <hyperlink ref="K44" r:id="rId24" xr:uid="{E3888C7C-DDBB-4226-8610-B38F3E7E7E6D}"/>
+    <hyperlink ref="K45" r:id="rId24" xr:uid="{E3888C7C-DDBB-4226-8610-B38F3E7E7E6D}"/>
     <hyperlink ref="K13" r:id="rId25" xr:uid="{84F8ED1F-E79B-42C7-9196-F87C516A6D64}"/>
     <hyperlink ref="K9" r:id="rId26" xr:uid="{F769BE77-B97E-4C25-811E-BFB3347ABB05}"/>
     <hyperlink ref="K33" r:id="rId27" xr:uid="{930ADD2A-EEA0-47F9-82BA-A4ECB6B25E50}"/>
@@ -2246,8 +2279,9 @@
     <hyperlink ref="K17" r:id="rId33" xr:uid="{34282F68-C87F-4621-A253-3FB459EF4969}"/>
     <hyperlink ref="K37" r:id="rId34" xr:uid="{1EB6EE59-6351-4483-AF1D-DC33FF49EE15}"/>
     <hyperlink ref="K38" r:id="rId35" xr:uid="{18170A3C-C069-4B16-B289-9FD8B99DAF52}"/>
+    <hyperlink ref="K39" r:id="rId36" xr:uid="{F0EB8A7D-6378-49DB-918E-D8B7EA7BFD3C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId36"/>
+  <pageSetup orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>
--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agneshk\pc\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A08BEA-C27B-47B3-BF51-FA5645243BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF878054-A45A-4E7D-8A55-98F5CB917742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1605" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="170">
   <si>
     <t>Two Sum - LeetCode</t>
   </si>
@@ -529,6 +529,12 @@
   </si>
   <si>
     <t>Diameter of Binary Tree</t>
+  </si>
+  <si>
+    <t>Accurately fits the DP Framework.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/coin-change/description/</t>
   </si>
 </sst>
 </file>
@@ -538,7 +544,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -550,6 +556,19 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -591,25 +610,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -924,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC9C734-1856-40B5-B14B-DBBAFE9DC413}">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C24" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -940,7 +965,7 @@
     <col min="8" max="8" width="8.88671875" style="1"/>
     <col min="9" max="9" width="8.88671875" style="4"/>
     <col min="10" max="10" width="19.88671875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="80.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="80.88671875" style="7" customWidth="1"/>
     <col min="12" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
@@ -975,7 +1000,7 @@
       <c r="J1" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="7" t="s">
         <v>164</v>
       </c>
     </row>
@@ -1005,7 +1030,7 @@
       <c r="J2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1034,7 +1059,7 @@
       <c r="J3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="8" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1063,7 +1088,7 @@
       <c r="J4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="8" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1095,7 +1120,7 @@
       <c r="I5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="8" t="s">
         <v>150</v>
       </c>
     </row>
@@ -1118,7 +1143,7 @@
       <c r="J6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1147,7 +1172,7 @@
       <c r="J7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="8" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1176,7 +1201,7 @@
       <c r="J8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="8" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1205,7 +1230,7 @@
       <c r="H9" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="8" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1237,7 +1262,7 @@
       <c r="J10" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="8" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1266,7 +1291,7 @@
       <c r="J11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1295,7 +1320,7 @@
       <c r="J12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="8" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1318,7 +1343,7 @@
       <c r="J13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1350,7 +1375,7 @@
       <c r="J14" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="8" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1385,7 +1410,7 @@
       <c r="J15" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="8" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1417,7 +1442,7 @@
       <c r="J16" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="8" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1440,7 +1465,7 @@
       <c r="J17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1472,7 +1497,7 @@
       <c r="J18" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="8" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1529,7 +1554,7 @@
       <c r="J21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="K21" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1561,7 +1586,7 @@
       <c r="J22" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="K22" s="8" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1590,7 +1615,7 @@
       <c r="J23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="K23" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1616,7 +1641,7 @@
       <c r="J24" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="K24" s="8" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1645,7 +1670,7 @@
       <c r="J25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="K25" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1665,7 +1690,7 @@
       <c r="J26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="K26" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1688,7 +1713,7 @@
       <c r="J27" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="K27" s="8" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1723,7 +1748,7 @@
       <c r="J28" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="K28" s="8" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1746,7 +1771,7 @@
       <c r="J29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="K29" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1769,7 +1794,7 @@
       <c r="J30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="K30" s="8" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1804,7 +1829,7 @@
       <c r="J31" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="K31" s="8" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1839,7 +1864,7 @@
       <c r="J32" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="K32" s="8" t="s">
         <v>155</v>
       </c>
     </row>
@@ -1862,7 +1887,7 @@
       <c r="J33" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="K33" s="8" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1897,7 +1922,7 @@
       <c r="J34" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="K34" s="8" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1932,7 +1957,7 @@
       <c r="J35" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="K35" s="8" t="s">
         <v>157</v>
       </c>
     </row>
@@ -1967,7 +1992,7 @@
       <c r="J36" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="K36" s="8" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1990,7 +2015,7 @@
       <c r="J37" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="K37" s="8" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2010,7 +2035,7 @@
       <c r="G38" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="K38" s="8" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2036,19 +2061,43 @@
       <c r="J39" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="K39" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>45515</v>
+      </c>
+      <c r="B40" s="1">
+        <v>322</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D40" s="1" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>95</v>
+        <v>144</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>91</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -2056,7 +2105,7 @@
         <v>92</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>91</v>
@@ -2067,7 +2116,7 @@
         <v>92</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>91</v>
@@ -2075,10 +2124,10 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D43" s="1" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>91</v>
@@ -2089,7 +2138,7 @@
         <v>108</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>91</v>
@@ -2097,10 +2146,13 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D45" s="1" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>141</v>
+        <v>107</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -2108,7 +2160,7 @@
         <v>148</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2116,7 +2168,7 @@
         <v>148</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -2124,10 +2176,10 @@
         <v>148</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D49" s="1" t="s">
         <v>148</v>
       </c>
@@ -2135,7 +2187,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D50" s="1" t="s">
         <v>148</v>
       </c>
@@ -2143,7 +2195,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D51" s="1" t="s">
         <v>112</v>
       </c>
@@ -2154,7 +2206,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D52" s="1" t="s">
         <v>101</v>
       </c>
@@ -2165,61 +2217,66 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E53" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E54" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E55" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
       <c r="E61" s="2"/>
       <c r="G61" s="2"/>
       <c r="I61" s="4"/>
       <c r="J61" s="2"/>
-    </row>
-    <row r="62" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K61" s="7"/>
+    </row>
+    <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
       <c r="E62" s="2"/>
       <c r="G62" s="2"/>
       <c r="I62" s="4"/>
       <c r="J62" s="2"/>
-    </row>
-    <row r="63" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K62" s="7"/>
+    </row>
+    <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
       <c r="E63" s="2"/>
       <c r="G63" s="2"/>
       <c r="I63" s="4"/>
       <c r="J63" s="2"/>
-    </row>
-    <row r="64" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K63" s="7"/>
+    </row>
+    <row r="64" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="E64" s="2"/>
       <c r="G64" s="2"/>
       <c r="I64" s="4"/>
       <c r="J64" s="2"/>
-    </row>
-    <row r="65" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K64" s="7"/>
+    </row>
+    <row r="65" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
       <c r="E65" s="2"/>
       <c r="G65" s="2"/>
       <c r="I65" s="4"/>
       <c r="J65" s="2"/>
+      <c r="K65" s="7"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K70">
-    <sortCondition ref="C1:C70"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K65">
+    <sortCondition ref="C24:C65"/>
   </sortState>
-  <conditionalFormatting sqref="A70:XFD70 A77:XFD1048576 A1:XFD65">
+  <conditionalFormatting sqref="A1:XFD65 A70:XFD70 A77:XFD1048576">
     <cfRule type="expression" dxfId="3" priority="1">
       <formula>$C1="Hard"</formula>
     </cfRule>
@@ -2272,8 +2329,9 @@
     <hyperlink ref="K10" r:id="rId34" xr:uid="{354EBB5E-C597-4204-AD5C-62D8EF46C33E}"/>
     <hyperlink ref="K15" r:id="rId35" xr:uid="{6ACA2667-9C31-454F-AD8F-DE49DF9D0030}"/>
     <hyperlink ref="K5" r:id="rId36" xr:uid="{4561E427-641C-4B88-A750-2AF146B8EE17}"/>
+    <hyperlink ref="K40" r:id="rId37" xr:uid="{6CF8E004-1A8F-4591-8B30-AD3F94092F75}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId37"/>
+  <pageSetup orientation="portrait" r:id="rId38"/>
 </worksheet>
 </file>
--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agneshk\pc\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF878054-A45A-4E7D-8A55-98F5CB917742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CE7FD8-3137-49BA-AF0C-AD8AFC0595A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1605" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="174">
   <si>
     <t>Two Sum - LeetCode</t>
   </si>
@@ -535,6 +535,18 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/coin-change/description/</t>
+  </si>
+  <si>
+    <t>Longest Common Subsequence</t>
+  </si>
+  <si>
+    <t>It's a 2D DP problem, fits the DP framework. The base case is 0 when there is no character to compare.</t>
+  </si>
+  <si>
+    <t>Strings</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-common-subsequence/description/</t>
   </si>
 </sst>
 </file>
@@ -610,7 +622,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -628,13 +640,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -949,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC9C734-1856-40B5-B14B-DBBAFE9DC413}">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C24" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2101,14 +2116,38 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>45515</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1143</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D41" s="1" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>95</v>
+        <v>170</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>91</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -2116,7 +2155,7 @@
         <v>92</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>91</v>
@@ -2127,7 +2166,7 @@
         <v>92</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>91</v>
@@ -2135,10 +2174,10 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D44" s="1" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>91</v>
@@ -2149,7 +2188,7 @@
         <v>108</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>91</v>
@@ -2157,10 +2196,13 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D46" s="1" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>141</v>
+        <v>107</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2168,7 +2210,7 @@
         <v>148</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -2176,7 +2218,7 @@
         <v>148</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -2184,7 +2226,7 @@
         <v>148</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -2192,43 +2234,51 @@
         <v>148</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D51" s="1" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D52" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D53" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H52" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E53" s="2" t="s">
-        <v>165</v>
+      <c r="H53" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E54" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E55" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E56" s="2" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2274,7 +2324,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K65">
-    <sortCondition ref="C24:C65"/>
+    <sortCondition ref="C1:C65"/>
   </sortState>
   <conditionalFormatting sqref="A1:XFD65 A70:XFD70 A77:XFD1048576">
     <cfRule type="expression" dxfId="3" priority="1">
@@ -2330,8 +2380,9 @@
     <hyperlink ref="K15" r:id="rId35" xr:uid="{6ACA2667-9C31-454F-AD8F-DE49DF9D0030}"/>
     <hyperlink ref="K5" r:id="rId36" xr:uid="{4561E427-641C-4B88-A750-2AF146B8EE17}"/>
     <hyperlink ref="K40" r:id="rId37" xr:uid="{6CF8E004-1A8F-4591-8B30-AD3F94092F75}"/>
+    <hyperlink ref="K41" r:id="rId38" xr:uid="{6C48852D-AC16-4020-A6D5-D6D75B05A33F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId38"/>
+  <pageSetup orientation="portrait" r:id="rId39"/>
 </worksheet>
 </file>
--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agneshk\pc\code\leetcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agneshk\pc\data\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6AAAE0-52A2-4EDC-A870-061124F9A11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8234EA-B7F9-4611-8771-F0366AC107BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="140">
   <si>
     <t>url</t>
   </si>
@@ -439,6 +439,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-consecutive-sequence/</t>
+  </si>
+  <si>
+    <t>Iterate over the array and check the length only if the number forms the start for a sequence.</t>
   </si>
 </sst>
 </file>
@@ -591,7 +597,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -604,6 +609,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -887,8 +893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -941,7 +947,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="24" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="23" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1422,43 +1428,31 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="23" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25" t="s">
+    <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="25" t="s">
+      <c r="I18" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="J18" s="25" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25" t="s">
+      <c r="J18" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="25" t="s">
+      <c r="I19" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="J19" s="25" t="s">
+      <c r="J19" s="1" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1861,18 +1855,42 @@
         <v>99</v>
       </c>
       <c r="K35" s="5"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C36" s="22" t="s">
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+    </row>
+    <row r="36" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="14">
+        <v>128</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="D36" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="H36" s="19">
+        <v>45504</v>
+      </c>
+      <c r="I36" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="J36" s="1" t="s">
-        <v>99</v>
+      <c r="J36" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="K36" s="17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
@@ -1908,26 +1926,23 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="3" t="s">
+    <row r="40" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="1" t="s">
+      <c r="D40" s="24"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="J40" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K40" s="5"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
+      <c r="J40" s="24" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C41" s="3" t="s">
@@ -1939,7 +1954,6 @@
       <c r="J41" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="K41" s="23"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K41">
@@ -1976,8 +1990,9 @@
     <hyperlink ref="D32" r:id="rId27" xr:uid="{930ADD2A-EEA0-47F9-82BA-A4ECB6B25E50}"/>
     <hyperlink ref="D16" r:id="rId28" xr:uid="{B844A605-41FB-4385-B130-985FBD14C189}"/>
     <hyperlink ref="D31" r:id="rId29" xr:uid="{75FAD807-8F2F-4605-AA42-7430E89F39B4}"/>
+    <hyperlink ref="D36" r:id="rId30" xr:uid="{1EF04E31-4794-470E-B99F-480486E2154C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId30"/>
+  <pageSetup orientation="portrait" r:id="rId31"/>
 </worksheet>
 </file>
--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agneshk\pc\code\leetcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\OneDrive - ARK\programs\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CE7FD8-3137-49BA-AF0C-AD8AFC0595A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB470C0-E9D5-492D-BB8C-0BBD59770462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1605" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="leet" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="174">
   <si>
     <t>Two Sum - LeetCode</t>
   </si>
@@ -964,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC9C734-1856-40B5-B14B-DBBAFE9DC413}">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1545,6 +1545,9 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>45530</v>
+      </c>
       <c r="B21" s="1">
         <v>3</v>
       </c>
@@ -1565,6 +1568,9 @@
       </c>
       <c r="H21" s="1" t="s">
         <v>91</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>12</v>

--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\OneDrive - ARK\programs\code\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB470C0-E9D5-492D-BB8C-0BBD59770462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9F5A4C-5546-4584-97BC-5B41D039F184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="176">
   <si>
     <t>Two Sum - LeetCode</t>
   </si>
@@ -547,6 +547,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/longest-common-subsequence/description/</t>
+  </si>
+  <si>
+    <t>while (left &lt; right)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-palindrome/description/</t>
   </si>
 </sst>
 </file>
@@ -962,10 +968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC9C734-1856-40B5-B14B-DBBAFE9DC413}">
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2263,30 +2269,62 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D53" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="E53" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>91</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E54" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E55" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <v>45531</v>
+      </c>
+      <c r="B56" s="1">
+        <v>125</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E56" s="2" t="s">
-        <v>167</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="3"/>
+      <c r="E60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="7"/>
     </row>
     <row r="61" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
@@ -2320,19 +2358,11 @@
       <c r="J64" s="2"/>
       <c r="K64" s="7"/>
     </row>
-    <row r="65" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="3"/>
-      <c r="E65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="7"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K65">
-    <sortCondition ref="C1:C65"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K64">
+    <sortCondition ref="C1:C64"/>
   </sortState>
-  <conditionalFormatting sqref="A1:XFD65 A70:XFD70 A77:XFD1048576">
+  <conditionalFormatting sqref="A69:XFD69 A1:XFD64 A76:XFD1048576">
     <cfRule type="expression" dxfId="3" priority="1">
       <formula>$C1="Hard"</formula>
     </cfRule>
